--- a/data_source/data_table.xlsx
+++ b/data_source/data_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GodotProject\ikun\data_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CC6407-CC26-4661-B146-78A9B7A02C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC4ACC0-614B-49D3-A44D-43DA7380CE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="581" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="581" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rarity-稀有度" sheetId="2" r:id="rId1"/>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +123,68 @@
   </si>
   <si>
     <t>这是一个备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_kun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_blood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/first_blood.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早死早超生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上</t>
+  </si>
+  <si>
+    <t>鬼来了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/hello_ghost.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hello_ghost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤出幽灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他们来了…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,49 +666,49 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -668,22 +721,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.59765625" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" customWidth="1"/>
-    <col min="4" max="4" width="32.59765625" customWidth="1"/>
-    <col min="5" max="5" width="18.59765625" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="34.25" customWidth="1"/>
+    <col min="6" max="6" width="18.625" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -691,19 +745,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -711,36 +768,111 @@
         <v>5</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G4" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -822,7 +954,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C3</xm:sqref>
+          <xm:sqref>D4:D6</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -832,7 +964,7 @@
           <x14:formula1>
             <xm:f>'rarity-稀有度'!$A$1:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
+          <xm:sqref>D4:D6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/data_source/data_table.xlsx
+++ b/data_source/data_table.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GodotProject\ikun\data_source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GodotProjects\godot-ikun\data_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC4ACC0-614B-49D3-A44D-43DA7380CE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55246D24-9282-4B2B-AE77-D0BD8E26FF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="581" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="581" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="rarity-稀有度" sheetId="2" r:id="rId1"/>
+    <sheet name="枚举" sheetId="2" r:id="rId1"/>
     <sheet name="kun_pictures|坤图" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +185,21 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【稀有度】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【类型】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -271,7 +286,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,13 +301,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8FBAE7"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3C66D"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -323,11 +344,102 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF8E8E8E"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF6DB75F"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF8FBAE7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF63CED0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE5AC8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE3C66D"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF28234"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE4504D"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF8E8E8E"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF6DB75F"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF8FBAE7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF63CED0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE5AC8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE3C66D"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF28234"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE4504D"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF8E8E8E"/>
@@ -662,53 +774,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8D11B0-111F-46EE-B845-36A966FA455A}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="9.796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E2" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -724,43 +853,43 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="9.125" customWidth="1"/>
-    <col min="5" max="5" width="34.25" customWidth="1"/>
-    <col min="6" max="6" width="18.625" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" customWidth="1"/>
+    <col min="5" max="5" width="34.265625" customWidth="1"/>
+    <col min="6" max="6" width="18.59765625" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -783,30 +912,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -829,7 +958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -852,7 +981,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3</v>
       </c>
@@ -883,7 +1012,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{41EEF3AB-1219-4459-BB92-0616E676E8A0}">
-            <xm:f>'rarity-稀有度'!$A$9</xm:f>
+            <xm:f>枚举!$A$9</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFE4504D"/>
@@ -891,7 +1020,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="2" operator="equal" id="{1EA3D768-16A5-4E2D-A16F-3577FE8849FA}">
-            <xm:f>'rarity-稀有度'!$A$8</xm:f>
+            <xm:f>枚举!$A$8</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFF28234"/>
@@ -899,7 +1028,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="3" operator="equal" id="{F52327ED-9619-4682-A60B-0728B195EE76}">
-            <xm:f>'rarity-稀有度'!$A$7</xm:f>
+            <xm:f>枚举!$A$7</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFE3C66D"/>
@@ -907,7 +1036,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="4" operator="equal" id="{0FC7966B-BC78-4F3E-B422-180BACD221D7}">
-            <xm:f>'rarity-稀有度'!$A$6</xm:f>
+            <xm:f>枚举!$A$6</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FFAE5AC8"/>
@@ -915,7 +1044,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="5" operator="equal" id="{14626402-1364-4505-BFBC-641138A48FDA}">
-            <xm:f>'rarity-稀有度'!$A$5</xm:f>
+            <xm:f>枚举!$A$5</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF63CED0"/>
@@ -923,7 +1052,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="6" operator="equal" id="{9E10EB45-BB7E-42F2-B611-3E183003DF30}">
-            <xm:f>'rarity-稀有度'!$A$4</xm:f>
+            <xm:f>枚举!$A$4</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF8FBAE7"/>
@@ -931,7 +1060,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="7" operator="equal" id="{BD516629-10D6-4C2D-8394-CDAE60BAA9C6}">
-            <xm:f>'rarity-稀有度'!$A$3</xm:f>
+            <xm:f>枚举!$A$3</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF6DB75F"/>
@@ -939,7 +1068,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="8" operator="equal" id="{29F85365-2641-4582-9629-58673A3EBB63}">
-            <xm:f>'rarity-稀有度'!$A$2</xm:f>
+            <xm:f>枚举!$A$2</xm:f>
             <x14:dxf>
               <font>
                 <color theme="0"/>
@@ -947,7 +1076,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="9" operator="equal" id="{03C3D268-8C56-495A-B68A-F116675FCB21}">
-            <xm:f>'rarity-稀有度'!$A$1</xm:f>
+            <xm:f>枚举!$A$1</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF8E8E8E"/>
@@ -959,12 +1088,18 @@
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1FC86BF3-0B00-4463-AA4A-8BCC2BD57889}">
           <x14:formula1>
-            <xm:f>'rarity-稀有度'!$A$1:$A$9</xm:f>
+            <xm:f>枚举!$A$1:$A$9</xm:f>
           </x14:formula1>
           <xm:sqref>D4:D6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1EAE1682-7750-4FD1-BC3B-E8DB52700847}">
+          <x14:formula1>
+            <xm:f>枚举!$E$1:$E$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:G3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/data_source/data_table.xlsx
+++ b/data_source/data_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GodotProjects\godot-ikun\data_source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GodotProject\ikun\data_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55246D24-9282-4B2B-AE77-D0BD8E26FF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67E1FCA-1EFB-4561-88EC-A4D29A2C5CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="581" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="581" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="枚举" sheetId="2" r:id="rId1"/>
@@ -26,16 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>texture</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -45,10 +41,6 @@
   </si>
   <si>
     <t>note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -349,97 +341,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <color rgb="FF8E8E8E"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF6DB75F"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF8FBAE7"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF63CED0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFAE5AC8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE3C66D"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF28234"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE4504D"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF8E8E8E"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF6DB75F"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF8FBAE7"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF63CED0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFAE5AC8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE3C66D"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF28234"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE4504D"/>
-      </font>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF8E8E8E"/>
@@ -780,66 +682,66 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.796875" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -850,158 +752,140 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.265625" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" customWidth="1"/>
-    <col min="5" max="5" width="34.265625" customWidth="1"/>
-    <col min="6" max="6" width="18.59765625" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" customWidth="1"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="34.25" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>26</v>
-      </c>
       <c r="D2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="C4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>2</v>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>3</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
         <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1083,7 +967,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D4:D6</xm:sqref>
+          <xm:sqref>C4:C6</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1093,13 +977,13 @@
           <x14:formula1>
             <xm:f>枚举!$A$1:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D6</xm:sqref>
+          <xm:sqref>C4:C6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1EAE1682-7750-4FD1-BC3B-E8DB52700847}">
           <x14:formula1>
             <xm:f>枚举!$E$1:$E$2</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:G3</xm:sqref>
+          <xm:sqref>A3:F3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/data_source/data_table.xlsx
+++ b/data_source/data_table.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GodotProject\ikun\data_source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GodotProjects\godot-ikun\data_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67E1FCA-1EFB-4561-88EC-A4D29A2C5CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EB1527-DA5F-49A2-A40A-FCF7A88EA2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="581" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="581" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="枚举" sheetId="2" r:id="rId1"/>
-    <sheet name="kun_pictures|坤图" sheetId="1" r:id="rId2"/>
+    <sheet name="challenges|挑战" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这是一个备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,6 +188,137 @@
   </si>
   <si>
     <t>【类型】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达成所需数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>ten_kuns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十只鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fifty_chickens</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将十只小鸡赶入鸡窝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将五十只小鸡赶入鸡窝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战所属分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KUNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GHOST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>three_ghost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤出3个幽灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三鬼行…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>five_ghost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五个鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤出5个幽灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五鬼搬运法…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五十只鸡！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀人如麻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>five_blood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡五次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是被杀人如麻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ten_blood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡十次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有人超神，有人超鬼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,64 +809,64 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -752,140 +879,333 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="9.125" customWidth="1"/>
-    <col min="4" max="4" width="34.25" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" customWidth="1"/>
+    <col min="2" max="3" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" customWidth="1"/>
+    <col min="6" max="6" width="34.265625" customWidth="1"/>
+    <col min="7" max="7" width="20.19921875" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="s">
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -967,7 +1287,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C4:C6</xm:sqref>
+          <xm:sqref>E4:E12</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -977,13 +1297,13 @@
           <x14:formula1>
             <xm:f>枚举!$A$1:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C6</xm:sqref>
+          <xm:sqref>E4:E12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1EAE1682-7750-4FD1-BC3B-E8DB52700847}">
           <x14:formula1>
             <xm:f>枚举!$E$1:$E$2</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:F3</xm:sqref>
+          <xm:sqref>A3:H3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/data_source/data_table.xlsx
+++ b/data_source/data_table.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GodotProjects\godot-ikun\data_source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GodotProject\ikun\data_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EB1527-DA5F-49A2-A40A-FCF7A88EA2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B79D5D-B856-4FB9-ACB6-954AD835317B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="581" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="581" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="枚举" sheetId="2" r:id="rId1"/>
     <sheet name="challenges|挑战" sheetId="1" r:id="rId2"/>
+    <sheet name="cards|卡片" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="96">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +320,86 @@
   </si>
   <si>
     <t>有人超神，有人超鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/yibaojing.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警了报警了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没想到啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/meixiangdao.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原来你TM就是黑粉！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷听</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/touting.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听说有人打篮球缺人？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>droprate</t>
+  </si>
+  <si>
+    <t>爆率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/qianniao.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千鸟、雷切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骂人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/maren.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你怎么骂人啊？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +549,52 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF8E8E8E"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF6DB75F"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF8FBAE7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF63CED0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFAE5AC8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE3C66D"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF28234"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE4504D"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF8E8E8E"/>
@@ -806,15 +932,15 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.73046875" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -828,7 +954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -836,37 +962,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E3" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -881,22 +1010,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" customWidth="1"/>
-    <col min="2" max="3" width="12.59765625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.1328125" customWidth="1"/>
-    <col min="6" max="6" width="34.265625" customWidth="1"/>
-    <col min="7" max="7" width="20.19921875" customWidth="1"/>
-    <col min="8" max="8" width="18.3984375" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="9.125" customWidth="1"/>
+    <col min="6" max="6" width="34.25" customWidth="1"/>
+    <col min="7" max="7" width="20.25" customWidth="1"/>
+    <col min="8" max="8" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -922,7 +1050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -948,7 +1076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>39</v>
       </c>
@@ -974,7 +1102,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1000,7 +1128,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1026,7 +1154,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -1052,7 +1180,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1078,7 +1206,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -1104,7 +1232,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -1130,7 +1258,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1156,7 +1284,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -1182,7 +1310,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -1301,7 +1429,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1EAE1682-7750-4FD1-BC3B-E8DB52700847}">
           <x14:formula1>
-            <xm:f>枚举!$E$1:$E$2</xm:f>
+            <xm:f>枚举!$E$1:$E$3</xm:f>
           </x14:formula1>
           <xm:sqref>A3:H3</xm:sqref>
         </x14:dataValidation>
@@ -1309,4 +1437,283 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FF9DB6-3FEC-4C97-B646-B85A565CF9B7}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="36.375" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{14A84372-C96E-46CE-821F-05AAB6C1ADE2}">
+            <xm:f>枚举!$A$9</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFE4504D"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{BF3891A9-1196-401E-8013-4D5C2FE0B4EF}">
+            <xm:f>枚举!$A$8</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFF28234"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{7ECCB179-1B8D-4EF4-862D-5630F33A5B84}">
+            <xm:f>枚举!$A$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFE3C66D"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{9819FE78-86CC-4DD3-9C43-430B07A6BC2C}">
+            <xm:f>枚举!$A$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFAE5AC8"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{343EDDD2-FC2C-48BF-AF76-09D12007B9F0}">
+            <xm:f>枚举!$A$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF63CED0"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{FEC8AE7F-89A5-4767-AA0B-86AF50F5CA64}">
+            <xm:f>枚举!$A$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF8FBAE7"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{DB7CB928-DA77-4952-942D-71EAF395B0F7}">
+            <xm:f>枚举!$A$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF6DB75F"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{4BF78ECA-7CFA-485C-8C72-4DA7EE3EE232}">
+            <xm:f>枚举!$A$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="0"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{2CFF6150-5BFA-4AF9-BAF5-2A7BA33789CF}">
+            <xm:f>枚举!$A$1</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF8E8E8E"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D4:D8</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E26F8835-EBD5-4019-9230-791B83F8393B}">
+          <x14:formula1>
+            <xm:f>枚举!$E$1:$E$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:F3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1DC522E9-0329-4476-8337-6D69ABC5824F}">
+          <x14:formula1>
+            <xm:f>枚举!$A$1:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>D4:D8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data_source/data_table.xlsx
+++ b/data_source/data_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GodotProject\ikun\data_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B79D5D-B856-4FB9-ACB6-954AD835317B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364D013E-90E2-4275-968F-624B970212AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="581" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="581" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="枚举" sheetId="2" r:id="rId1"/>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/kun_pictures/first_kun.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下</t>
   </si>
   <si>
@@ -138,10 +134,6 @@
     <t>中</t>
   </si>
   <si>
-    <t>res://assets/kun_pictures/first_blood.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>死亡一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,10 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/kun_pictures/hello_ghost.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hello_ghost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,6 +389,15 @@
   <si>
     <t>你怎么骂人啊？</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/first_kun.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/hello_ghost.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/first_blood.jpg</t>
   </si>
 </sst>
 </file>
@@ -942,62 +939,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
         <v>38</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1010,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1019,7 +1016,7 @@
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="9.125" customWidth="1"/>
-    <col min="6" max="6" width="34.25" customWidth="1"/>
+    <col min="6" max="6" width="39.5" customWidth="1"/>
     <col min="7" max="7" width="20.25" customWidth="1"/>
     <col min="8" max="8" width="18.375" customWidth="1"/>
   </cols>
@@ -1029,13 +1026,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>2</v>
@@ -1044,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>3</v>
@@ -1055,13 +1052,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>5</v>
@@ -1070,7 +1067,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>6</v>
@@ -1078,262 +1075,262 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>50</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
         <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1443,7 +1440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FF9DB6-3FEC-4C97-B646-B85A565CF9B7}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1459,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>2</v>
@@ -1479,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>5</v>
@@ -1496,22 +1493,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1519,19 +1516,19 @@
         <v>10001</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C4">
         <v>50</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1539,19 +1536,19 @@
         <v>10002</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C5">
         <v>30</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1559,19 +1556,19 @@
         <v>10003</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C6">
         <v>20</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1579,19 +1576,19 @@
         <v>10004</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1599,19 +1596,19 @@
         <v>10005</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data_source/data_table.xlsx
+++ b/data_source/data_table.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GodotProject\ikun\data_source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GodotProjects\godot-ikun\data_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364D013E-90E2-4275-968F-624B970212AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CA396E-6BA1-42FD-913F-ED424C38E830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="581" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="581" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="枚举" sheetId="2" r:id="rId1"/>
-    <sheet name="challenges|挑战" sheetId="1" r:id="rId2"/>
-    <sheet name="cards|卡片" sheetId="3" r:id="rId3"/>
+    <sheet name="说明" sheetId="4" r:id="rId1"/>
+    <sheet name="枚举" sheetId="2" r:id="rId2"/>
+    <sheet name="challenges|挑战" sheetId="1" r:id="rId3"/>
+    <sheet name="cards|卡片" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="104">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -398,13 +399,86 @@
   </si>
   <si>
     <t>res://assets/challenge_textures/first_blood.jpg</t>
+  </si>
+  <si>
+    <t>name_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更具辨识度的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yibaojing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>touting</t>
+  </si>
+  <si>
+    <t>qianniao</t>
+  </si>
+  <si>
+    <t>maren</t>
+  </si>
+  <si>
+    <t>meixiangdao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当前项目中所用的主键皆为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，更便于开发和调试，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>作为保留字段备用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,8 +556,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="0.39997558519241921"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,6 +596,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -527,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -542,6 +630,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -925,6 +1016,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52734A5-F20E-4011-A084-74D15152D2C1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="68.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8D11B0-111F-46EE-B845-36A966FA455A}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -932,12 +1047,12 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -951,7 +1066,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -959,7 +1074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -967,32 +1082,32 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -1003,79 +1118,86 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="9.125" customWidth="1"/>
-    <col min="6" max="6" width="39.5" customWidth="1"/>
-    <col min="7" max="7" width="20.25" customWidth="1"/>
-    <col min="8" max="8" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="5" width="12.59765625" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" customWidth="1"/>
+    <col min="7" max="7" width="39.46484375" customWidth="1"/>
+    <col min="8" max="8" width="20.265625" customWidth="1"/>
+    <col min="9" max="9" width="18.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>36</v>
@@ -1084,10 +1206,10 @@
         <v>36</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>36</v>
@@ -1098,238 +1220,268 @@
       <c r="H3" s="11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="I3" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>10001</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>49</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>93</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>10002</v>
+      </c>
+      <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>49</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>10</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>93</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>45</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>10003</v>
+      </c>
+      <c r="B6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>49</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>50</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>93</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>10004</v>
+      </c>
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>50</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>94</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>32</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>10005</v>
+      </c>
+      <c r="B8" t="s">
         <v>52</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>51</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>94</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>53</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>10006</v>
+      </c>
+      <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>59</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>50</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>5</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>94</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>60</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>10007</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>62</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>95</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>27</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10008</v>
+      </c>
+      <c r="B11" t="s">
         <v>66</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>65</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>62</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>5</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>95</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>67</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>10009</v>
+      </c>
+      <c r="B12" t="s">
         <v>69</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>62</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>10</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>95</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>70</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1412,7 +1564,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E4:E12</xm:sqref>
+          <xm:sqref>F4:F12</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1422,13 +1574,13 @@
           <x14:formula1>
             <xm:f>枚举!$A$1:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E12</xm:sqref>
+          <xm:sqref>F4:F12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1EAE1682-7750-4FD1-BC3B-E8DB52700847}">
           <x14:formula1>
             <xm:f>枚举!$E$1:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:H3</xm:sqref>
+          <xm:sqref>A3:I3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1436,73 +1588,80 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FF9DB6-3FEC-4C97-B646-B85A565CF9B7}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="36.375" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.73046875" customWidth="1"/>
+    <col min="6" max="6" width="36.3984375" customWidth="1"/>
+    <col min="7" max="7" width="19.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>36</v>
@@ -1510,104 +1669,122 @@
       <c r="F3" s="11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
         <v>74</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>50</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>75</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>10002</v>
+        <v>20002</v>
       </c>
       <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
         <v>77</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>30</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>78</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>10003</v>
+        <v>20003</v>
       </c>
       <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
         <v>80</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>20</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>81</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
         <v>85</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>10</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>87</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>10005</v>
+        <v>20005</v>
       </c>
       <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
         <v>89</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>5</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>91</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1691,7 +1868,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D4:D8</xm:sqref>
+          <xm:sqref>E4:E8</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1701,13 +1878,13 @@
           <x14:formula1>
             <xm:f>枚举!$E$1:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:F3</xm:sqref>
+          <xm:sqref>A3:G3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1DC522E9-0329-4476-8337-6D69ABC5824F}">
           <x14:formula1>
             <xm:f>枚举!$A$1:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D8</xm:sqref>
+          <xm:sqref>E4:E8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/data_source/data_table.xlsx
+++ b/data_source/data_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GodotProjects\godot-ikun\data_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CA396E-6BA1-42FD-913F-ED424C38E830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F040DE-BD61-45DB-A1C2-81FD5D7FEA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="581" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="581" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="150">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -471,6 +471,189 @@
       </rPr>
       <t>作为保留字段备用</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哎呀！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNOWMAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_snowman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/first_snowman.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞击雪人一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪都要撞掉了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞击雪人25次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25_snowman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂怼雪人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撞击雪人50次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50_snowman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一桶金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/first_glod.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富甲一方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小有资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有500金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有1金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有1000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家财万贯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有5000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_glod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500_glod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000_glod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000_glod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇怪大叔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STORE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi_store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/hi_store.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让商人来找你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi_slot_machine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/hi_slot_machine.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让老虎机来找你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老虎来了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回头客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/first_store.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与商人交易100金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_store</t>
+  </si>
+  <si>
+    <t>500_store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/500_store.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与商人交易500金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老顾客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣食父母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/1000_store.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与商人交易1000金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000_store</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1019,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52734A5-F20E-4011-A084-74D15152D2C1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1120,19 +1303,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.59765625" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="5" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="14.1328125" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" customWidth="1"/>
     <col min="6" max="6" width="9.1328125" customWidth="1"/>
-    <col min="7" max="7" width="39.46484375" customWidth="1"/>
+    <col min="7" max="7" width="43.19921875" customWidth="1"/>
     <col min="8" max="8" width="20.265625" customWidth="1"/>
     <col min="9" max="9" width="18.3984375" customWidth="1"/>
   </cols>
@@ -1483,6 +1668,306 @@
       </c>
       <c r="I12" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>10010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>10011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14">
+        <v>25</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>10012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>10013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>10014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17">
+        <v>500</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>10015</v>
+      </c>
+      <c r="B18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>10016</v>
+      </c>
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19">
+        <v>5000</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>10017</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>10018</v>
+      </c>
+      <c r="B21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>10019</v>
+      </c>
+      <c r="B22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22">
+        <v>500</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>10020</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>10021</v>
+      </c>
+      <c r="B24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H24" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1564,7 +2049,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F4:F12</xm:sqref>
+          <xm:sqref>F4:F24</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1574,7 +2059,7 @@
           <x14:formula1>
             <xm:f>枚举!$A$1:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>F4:F12</xm:sqref>
+          <xm:sqref>F4:F24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1EAE1682-7750-4FD1-BC3B-E8DB52700847}">
           <x14:formula1>

--- a/data_source/data_table.xlsx
+++ b/data_source/data_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GodotProjects\godot-ikun\data_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F040DE-BD61-45DB-A1C2-81FD5D7FEA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EE6E3C-9732-4B5C-BFFD-B4D044FFF791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="581" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="172">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -654,6 +654,94 @@
   </si>
   <si>
     <t>1000_store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小赌怡情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLOT_MACHINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/first_slot_machine.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇奖金额达到100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_slot_machine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大赌伤身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇奖金额达到500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500_slot_machine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赌怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇奖金额达到1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000_slot_machine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一张卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/first_card.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集一张卡片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗地主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集50%的卡片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50_card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100_card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌大师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集所有卡片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1303,21 +1391,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.59765625" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.53125" customWidth="1"/>
     <col min="3" max="3" width="12.59765625" customWidth="1"/>
     <col min="4" max="4" width="14.1328125" customWidth="1"/>
     <col min="5" max="5" width="12.59765625" customWidth="1"/>
     <col min="6" max="6" width="9.1328125" customWidth="1"/>
-    <col min="7" max="7" width="43.19921875" customWidth="1"/>
+    <col min="7" max="7" width="44.6640625" customWidth="1"/>
     <col min="8" max="8" width="20.265625" customWidth="1"/>
     <col min="9" max="9" width="18.3984375" customWidth="1"/>
   </cols>
@@ -1968,6 +2056,162 @@
       </c>
       <c r="H24" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>10022</v>
+      </c>
+      <c r="B25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>10023</v>
+      </c>
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26">
+        <v>500</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>10024</v>
+      </c>
+      <c r="B27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>10025</v>
+      </c>
+      <c r="B28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>10026</v>
+      </c>
+      <c r="B29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29">
+        <v>15</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>164</v>
+      </c>
+      <c r="H29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>10027</v>
+      </c>
+      <c r="B30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>164</v>
+      </c>
+      <c r="H30" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2049,7 +2293,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F4:F24</xm:sqref>
+          <xm:sqref>F4:F30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2059,7 +2303,7 @@
           <x14:formula1>
             <xm:f>枚举!$A$1:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>F4:F24</xm:sqref>
+          <xm:sqref>F4:F30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1EAE1682-7750-4FD1-BC3B-E8DB52700847}">
           <x14:formula1>

--- a/data_source/data_table.xlsx
+++ b/data_source/data_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GodotProjects\godot-ikun\data_source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GodotProject\ikun\data_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EE6E3C-9732-4B5C-BFFD-B4D044FFF791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5261E91B-39DA-46CE-B0BE-B32B45E0B8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="581" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13755" yWindow="2805" windowWidth="20310" windowHeight="12840" tabRatio="581" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="369">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,42 +319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已报警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/yibaojing.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报警了报警了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没想到啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/meixiangdao.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原来你TM就是黑粉！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偷听</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/touting.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>听说有人打篮球缺人？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>droprate</t>
   </si>
   <si>
@@ -362,36 +326,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>千鸟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>奇</t>
   </si>
   <si>
-    <t>res://assets/kun_pictures/qianniao.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>千鸟、雷切</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骂人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>秘</t>
   </si>
   <si>
-    <t>res://assets/kun_pictures/maren.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你怎么骂人啊？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>res://assets/challenge_textures/first_kun.jpg</t>
   </si>
   <si>
@@ -406,23 +346,6 @@
   </si>
   <si>
     <t>更具辨识度的ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yibaojing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>touting</t>
-  </si>
-  <si>
-    <t>qianniao</t>
-  </si>
-  <si>
-    <t>maren</t>
-  </si>
-  <si>
-    <t>meixiangdao</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -743,6 +666,820 @@
   <si>
     <t>收集所有卡片</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑桃A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/01_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/01_2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/01_3.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/01_4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ace of spades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ace of hearts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ace of clubs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ace of diamonds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红桃A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅花A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑桃2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红桃2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅花2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/02_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/02_2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/02_3.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/02_4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two of spades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two of hearts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two of clubs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two of diamonds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑桃3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红桃3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅花3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/03_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/03_2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/03_3.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/03_4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Three of spades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Three of hearts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Three of clubs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Three of diamonds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑桃4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红桃4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅花4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/04_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/04_2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/04_3.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/04_4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Four of spades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Four of hearts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Four of clubs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Four of diamonds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑桃5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红桃5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅花5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/05_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/05_2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/05_3.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/05_4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Five of spades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Five of hearts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Five of clubs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Five of diamonds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑桃6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红桃6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅花6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/06_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/06_2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/06_3.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/06_4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Six of spades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Six of hearts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Six of clubs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Six of diamonds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑桃7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红桃7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅花7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/07_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/07_2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/07_3.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/07_4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seven of spades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seven of hearts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seven of clubs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seven of diamonds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑桃8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红桃8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅花8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/08_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/08_2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/08_3.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/08_4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eight of spades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eight of hearts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eight of clubs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eight of diamonds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑桃9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红桃9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅花9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/09_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/09_2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/09_3.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/09_4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nine of spades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nine of hearts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nine of clubs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nine of diamonds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑桃10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红桃10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅花10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/10_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/10_2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/10_3.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/10_4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ten of spades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ten of hearts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ten of clubs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ten of diamonds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑桃J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红桃J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅花J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/11_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/11_2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/11_3.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/11_4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jack of spades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jack of hearts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jack of clubs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jack of diamonds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑桃Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红桃Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅花Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/12_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/12_2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/12_3.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/12_4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queen of spades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queen of hearts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queen of clubs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queen of diamonds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑桃K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红桃K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅花K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/13_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/13_2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/13_3.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/13_4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>King of spades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>King of hearts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>King of clubs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>King of diamonds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/14_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/14_2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Big joker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Little joker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_2</t>
+  </si>
+  <si>
+    <t>01_3</t>
+  </si>
+  <si>
+    <t>01_4</t>
+  </si>
+  <si>
+    <t>02_1</t>
+  </si>
+  <si>
+    <t>02_2</t>
+  </si>
+  <si>
+    <t>02_3</t>
+  </si>
+  <si>
+    <t>02_4</t>
+  </si>
+  <si>
+    <t>03_1</t>
+  </si>
+  <si>
+    <t>03_2</t>
+  </si>
+  <si>
+    <t>03_3</t>
+  </si>
+  <si>
+    <t>03_4</t>
+  </si>
+  <si>
+    <t>04_1</t>
+  </si>
+  <si>
+    <t>04_2</t>
+  </si>
+  <si>
+    <t>04_3</t>
+  </si>
+  <si>
+    <t>04_4</t>
+  </si>
+  <si>
+    <t>05_1</t>
+  </si>
+  <si>
+    <t>05_2</t>
+  </si>
+  <si>
+    <t>05_3</t>
+  </si>
+  <si>
+    <t>05_4</t>
+  </si>
+  <si>
+    <t>06_1</t>
+  </si>
+  <si>
+    <t>06_2</t>
+  </si>
+  <si>
+    <t>06_3</t>
+  </si>
+  <si>
+    <t>06_4</t>
+  </si>
+  <si>
+    <t>07_1</t>
+  </si>
+  <si>
+    <t>07_2</t>
+  </si>
+  <si>
+    <t>07_3</t>
+  </si>
+  <si>
+    <t>07_4</t>
+  </si>
+  <si>
+    <t>08_1</t>
+  </si>
+  <si>
+    <t>08_2</t>
+  </si>
+  <si>
+    <t>08_3</t>
+  </si>
+  <si>
+    <t>08_4</t>
+  </si>
+  <si>
+    <t>09_1</t>
+  </si>
+  <si>
+    <t>09_2</t>
+  </si>
+  <si>
+    <t>09_3</t>
+  </si>
+  <si>
+    <t>09_4</t>
+  </si>
+  <si>
+    <t>10_1</t>
+  </si>
+  <si>
+    <t>10_2</t>
+  </si>
+  <si>
+    <t>10_3</t>
+  </si>
+  <si>
+    <t>10_4</t>
+  </si>
+  <si>
+    <t>11_1</t>
+  </si>
+  <si>
+    <t>11_2</t>
+  </si>
+  <si>
+    <t>11_3</t>
+  </si>
+  <si>
+    <t>11_4</t>
+  </si>
+  <si>
+    <t>12_1</t>
+  </si>
+  <si>
+    <t>12_2</t>
+  </si>
+  <si>
+    <t>12_3</t>
+  </si>
+  <si>
+    <t>12_4</t>
+  </si>
+  <si>
+    <t>13_1</t>
+  </si>
+  <si>
+    <t>13_2</t>
+  </si>
+  <si>
+    <t>13_3</t>
+  </si>
+  <si>
+    <t>13_4</t>
+  </si>
+  <si>
+    <t>14_1</t>
+  </si>
+  <si>
+    <t>14_2</t>
   </si>
 </sst>
 </file>
@@ -1294,14 +2031,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="68.1328125" customWidth="1"/>
+    <col min="1" max="1" width="68.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1318,12 +2055,12 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.73046875" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1337,7 +2074,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1345,7 +2082,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1353,32 +2090,32 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -1393,29 +2130,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" customWidth="1"/>
-    <col min="2" max="2" width="16.53125" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" customWidth="1"/>
-    <col min="4" max="4" width="14.1328125" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" customWidth="1"/>
-    <col min="6" max="6" width="9.1328125" customWidth="1"/>
-    <col min="7" max="7" width="44.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.265625" customWidth="1"/>
-    <col min="9" max="9" width="18.3984375" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="44.625" customWidth="1"/>
+    <col min="8" max="8" width="20.25" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>21</v>
@@ -1439,12 +2176,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>22</v>
@@ -1468,7 +2205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>41</v>
       </c>
@@ -1497,7 +2234,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10001</v>
       </c>
@@ -1517,7 +2254,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -1526,7 +2263,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10002</v>
       </c>
@@ -1546,7 +2283,7 @@
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s">
         <v>45</v>
@@ -1555,7 +2292,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10003</v>
       </c>
@@ -1575,7 +2312,7 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s">
         <v>46</v>
@@ -1584,7 +2321,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10004</v>
       </c>
@@ -1604,7 +2341,7 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s">
         <v>32</v>
@@ -1613,7 +2350,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10005</v>
       </c>
@@ -1633,7 +2370,7 @@
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s">
         <v>53</v>
@@ -1642,7 +2379,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10006</v>
       </c>
@@ -1662,7 +2399,7 @@
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
         <v>60</v>
@@ -1671,7 +2408,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10007</v>
       </c>
@@ -1691,7 +2428,7 @@
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -1700,7 +2437,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10008</v>
       </c>
@@ -1720,7 +2457,7 @@
         <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s">
         <v>67</v>
@@ -1729,7 +2466,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10009</v>
       </c>
@@ -1749,7 +2486,7 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s">
         <v>70</v>
@@ -1758,18 +2495,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10010</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1778,24 +2515,24 @@
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10011</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="E14">
         <v>25</v>
@@ -1804,24 +2541,24 @@
         <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10012</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="E15">
         <v>50</v>
@@ -1830,24 +2567,24 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10013</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1856,24 +2593,24 @@
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="H16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10014</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="E17">
         <v>500</v>
@@ -1882,24 +2619,24 @@
         <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="H17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10015</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="E18">
         <v>1000</v>
@@ -1908,70 +2645,70 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10016</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="E19">
         <v>5000</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="H19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10017</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10018</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -1980,24 +2717,24 @@
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="H21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10019</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -2006,24 +2743,24 @@
         <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="H22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>10020</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E23">
         <v>1000</v>
@@ -2032,44 +2769,44 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="H23" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10021</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="H24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>10022</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -2078,24 +2815,24 @@
         <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="H25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>10023</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E26">
         <v>500</v>
@@ -2104,24 +2841,24 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="H26" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>10024</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C27" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E27">
         <v>1000</v>
@@ -2130,24 +2867,24 @@
         <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="H27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>10025</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2156,24 +2893,24 @@
         <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="H28" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10026</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="C29" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="D29" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="E29">
         <v>15</v>
@@ -2182,24 +2919,24 @@
         <v>26</v>
       </c>
       <c r="G29" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="H29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>10027</v>
       </c>
       <c r="B30" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="C30" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="D30" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="E30">
         <v>30</v>
@@ -2208,10 +2945,10 @@
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="H30" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2319,32 +3056,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FF9DB6-3FEC-4C97-B646-B85A565CF9B7}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.73046875" customWidth="1"/>
-    <col min="6" max="6" width="36.3984375" customWidth="1"/>
-    <col min="7" max="7" width="19.73046875" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="36.375" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>2</v>
@@ -2356,18 +3093,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>5</v>
@@ -2379,7 +3116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>41</v>
       </c>
@@ -2402,119 +3139,1246 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20001</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>315</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20002</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>316</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20003</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>317</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20004</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>318</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20005</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>319</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>20006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>20007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>321</v>
+      </c>
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>20010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>325</v>
+      </c>
+      <c r="C14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>20013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>327</v>
+      </c>
+      <c r="C16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>328</v>
+      </c>
+      <c r="C17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>193</v>
+      </c>
+      <c r="G17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>20015</v>
+      </c>
+      <c r="B18" t="s">
+        <v>329</v>
+      </c>
+      <c r="C18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>20016</v>
+      </c>
+      <c r="B19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20017</v>
+      </c>
+      <c r="B20" t="s">
+        <v>331</v>
+      </c>
+      <c r="C20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20018</v>
+      </c>
+      <c r="B21" t="s">
+        <v>332</v>
+      </c>
+      <c r="C21" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20019</v>
+      </c>
+      <c r="B22" t="s">
+        <v>333</v>
+      </c>
+      <c r="C22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20020</v>
+      </c>
+      <c r="B23" t="s">
+        <v>334</v>
+      </c>
+      <c r="C23" t="s">
+        <v>203</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20021</v>
+      </c>
+      <c r="B24" t="s">
+        <v>335</v>
+      </c>
+      <c r="C24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>20022</v>
+      </c>
+      <c r="B25" t="s">
+        <v>336</v>
+      </c>
+      <c r="C25" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>20023</v>
+      </c>
+      <c r="B26" t="s">
+        <v>337</v>
+      </c>
+      <c r="C26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>218</v>
+      </c>
+      <c r="G26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>20024</v>
+      </c>
+      <c r="B27" t="s">
+        <v>338</v>
+      </c>
+      <c r="C27" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>219</v>
+      </c>
+      <c r="G27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>20025</v>
+      </c>
+      <c r="B28" t="s">
+        <v>339</v>
+      </c>
+      <c r="C28" t="s">
+        <v>224</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" t="s">
+        <v>228</v>
+      </c>
+      <c r="G28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>20026</v>
+      </c>
+      <c r="B29" t="s">
+        <v>340</v>
+      </c>
+      <c r="C29" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>20027</v>
+      </c>
+      <c r="B30" t="s">
+        <v>341</v>
+      </c>
+      <c r="C30" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>230</v>
+      </c>
+      <c r="G30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>20028</v>
+      </c>
+      <c r="B31" t="s">
+        <v>342</v>
+      </c>
+      <c r="C31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>231</v>
+      </c>
+      <c r="G31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>20029</v>
+      </c>
+      <c r="B32" t="s">
+        <v>343</v>
+      </c>
+      <c r="C32" t="s">
+        <v>236</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" t="s">
+        <v>240</v>
+      </c>
+      <c r="G32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>20030</v>
+      </c>
+      <c r="B33" t="s">
+        <v>344</v>
+      </c>
+      <c r="C33" t="s">
+        <v>237</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>241</v>
+      </c>
+      <c r="G33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>20031</v>
+      </c>
+      <c r="B34" t="s">
+        <v>345</v>
+      </c>
+      <c r="C34" t="s">
+        <v>238</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>242</v>
+      </c>
+      <c r="G34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>20032</v>
+      </c>
+      <c r="B35" t="s">
+        <v>346</v>
+      </c>
+      <c r="C35" t="s">
+        <v>239</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>243</v>
+      </c>
+      <c r="G35" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>20033</v>
+      </c>
+      <c r="B36" t="s">
+        <v>347</v>
+      </c>
+      <c r="C36" t="s">
+        <v>248</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" t="s">
+        <v>252</v>
+      </c>
+      <c r="G36" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>20034</v>
+      </c>
+      <c r="B37" t="s">
+        <v>348</v>
+      </c>
+      <c r="C37" t="s">
+        <v>249</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" t="s">
+        <v>253</v>
+      </c>
+      <c r="G37" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>20035</v>
+      </c>
+      <c r="B38" t="s">
+        <v>349</v>
+      </c>
+      <c r="C38" t="s">
+        <v>250</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
+        <v>254</v>
+      </c>
+      <c r="G38" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>20036</v>
+      </c>
+      <c r="B39" t="s">
+        <v>350</v>
+      </c>
+      <c r="C39" t="s">
+        <v>251</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>255</v>
+      </c>
+      <c r="G39" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>20037</v>
+      </c>
+      <c r="B40" t="s">
+        <v>351</v>
+      </c>
+      <c r="C40" t="s">
+        <v>260</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
+        <v>264</v>
+      </c>
+      <c r="G40" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>20038</v>
+      </c>
+      <c r="B41" t="s">
+        <v>352</v>
+      </c>
+      <c r="C41" t="s">
+        <v>261</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" t="s">
+        <v>265</v>
+      </c>
+      <c r="G41" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>20039</v>
+      </c>
+      <c r="B42" t="s">
+        <v>353</v>
+      </c>
+      <c r="C42" t="s">
+        <v>262</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" t="s">
+        <v>266</v>
+      </c>
+      <c r="G42" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>20040</v>
+      </c>
+      <c r="B43" t="s">
+        <v>354</v>
+      </c>
+      <c r="C43" t="s">
+        <v>263</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>267</v>
+      </c>
+      <c r="G43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>20041</v>
+      </c>
+      <c r="B44" t="s">
+        <v>355</v>
+      </c>
+      <c r="C44" t="s">
+        <v>272</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" t="s">
+        <v>276</v>
+      </c>
+      <c r="G44" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>20042</v>
+      </c>
+      <c r="B45" t="s">
+        <v>356</v>
+      </c>
+      <c r="C45" t="s">
+        <v>273</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" t="s">
+        <v>277</v>
+      </c>
+      <c r="G45" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>20043</v>
+      </c>
+      <c r="B46" t="s">
+        <v>357</v>
+      </c>
+      <c r="C46" t="s">
+        <v>274</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" t="s">
+        <v>278</v>
+      </c>
+      <c r="G46" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>20044</v>
+      </c>
+      <c r="B47" t="s">
+        <v>358</v>
+      </c>
+      <c r="C47" t="s">
+        <v>275</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>279</v>
+      </c>
+      <c r="G47" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>20045</v>
+      </c>
+      <c r="B48" t="s">
+        <v>359</v>
+      </c>
+      <c r="C48" t="s">
+        <v>284</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" t="s">
+        <v>288</v>
+      </c>
+      <c r="G48" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>20046</v>
+      </c>
+      <c r="B49" t="s">
+        <v>360</v>
+      </c>
+      <c r="C49" t="s">
+        <v>285</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" t="s">
+        <v>289</v>
+      </c>
+      <c r="G49" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>20047</v>
+      </c>
+      <c r="B50" t="s">
+        <v>361</v>
+      </c>
+      <c r="C50" t="s">
+        <v>286</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" t="s">
+        <v>290</v>
+      </c>
+      <c r="G50" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>20048</v>
+      </c>
+      <c r="B51" t="s">
+        <v>362</v>
+      </c>
+      <c r="C51" t="s">
+        <v>287</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>291</v>
+      </c>
+      <c r="G51" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>20049</v>
+      </c>
+      <c r="B52" t="s">
+        <v>363</v>
+      </c>
+      <c r="C52" t="s">
+        <v>296</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" t="s">
+        <v>300</v>
+      </c>
+      <c r="G52" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>20050</v>
+      </c>
+      <c r="B53" t="s">
+        <v>364</v>
+      </c>
+      <c r="C53" t="s">
+        <v>297</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" t="s">
+        <v>301</v>
+      </c>
+      <c r="G53" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>20051</v>
+      </c>
+      <c r="B54" t="s">
+        <v>365</v>
+      </c>
+      <c r="C54" t="s">
+        <v>298</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" t="s">
+        <v>302</v>
+      </c>
+      <c r="G54" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>20052</v>
+      </c>
+      <c r="B55" t="s">
+        <v>366</v>
+      </c>
+      <c r="C55" t="s">
+        <v>299</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" t="s">
+        <v>303</v>
+      </c>
+      <c r="G55" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>20053</v>
+      </c>
+      <c r="B56" t="s">
+        <v>367</v>
+      </c>
+      <c r="C56" t="s">
+        <v>308</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" t="s">
+        <v>311</v>
+      </c>
+      <c r="G56" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>20054</v>
+      </c>
+      <c r="B57" t="s">
+        <v>368</v>
+      </c>
+      <c r="C57" t="s">
+        <v>309</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="F57" t="s">
+        <v>312</v>
+      </c>
+      <c r="G57" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -2597,7 +4461,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E4:E8</xm:sqref>
+          <xm:sqref>E4:E57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2613,7 +4477,7 @@
           <x14:formula1>
             <xm:f>枚举!$A$1:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E8</xm:sqref>
+          <xm:sqref>E4:E57</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/data_source/data_table.xlsx
+++ b/data_source/data_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GodotProject\ikun\data_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5261E91B-39DA-46CE-B0BE-B32B45E0B8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BDC465-0755-4C9D-8E66-BA3141451C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13755" yWindow="2805" windowWidth="20310" windowHeight="12840" tabRatio="581" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="1965" windowWidth="20310" windowHeight="12840" tabRatio="581" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="4" r:id="rId1"/>
@@ -672,22 +672,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/kun_pictures/01_1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/01_2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/01_3.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/01_4.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ace of spades</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -732,22 +716,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/kun_pictures/02_1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/02_2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/02_3.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/02_4.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Two of spades</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -780,22 +748,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/kun_pictures/03_1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/03_2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/03_3.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/03_4.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Three of spades</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -828,22 +780,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/kun_pictures/04_1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/04_2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/04_3.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/04_4.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Four of spades</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -876,22 +812,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/kun_pictures/05_1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/05_2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/05_3.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/05_4.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Five of spades</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -924,22 +844,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/kun_pictures/06_1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/06_2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/06_3.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/06_4.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Six of spades</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -972,22 +876,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/kun_pictures/07_1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/07_2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/07_3.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/07_4.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Seven of spades</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1020,22 +908,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/kun_pictures/08_1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/08_2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/08_3.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/08_4.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Eight of spades</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1068,22 +940,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/kun_pictures/09_1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/09_2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/09_3.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/09_4.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Nine of spades</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1116,22 +972,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/kun_pictures/10_1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/10_2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/10_3.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/10_4.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ten of spades</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1164,22 +1004,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/kun_pictures/11_1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/11_2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/11_3.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/11_4.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Jack of spades</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1212,22 +1036,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/kun_pictures/12_1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/12_2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/12_3.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/12_4.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Queen of spades</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1260,22 +1068,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/kun_pictures/13_1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/13_2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/13_3.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/13_4.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>King of spades</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1303,14 +1095,6 @@
     <t>极</t>
   </si>
   <si>
-    <t>res://assets/kun_pictures/14_1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/14_2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Big joker</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1480,6 +1264,168 @@
   </si>
   <si>
     <t>14_2</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/01_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/01_2.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/01_3.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/01_4.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/02_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/02_2.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/02_3.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/02_4.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/03_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/03_2.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/03_3.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/03_4.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/04_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/04_2.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/04_3.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/04_4.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/05_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/05_2.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/05_3.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/05_4.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/06_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/06_2.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/06_3.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/06_4.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/07_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/07_2.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/07_3.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/07_4.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/08_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/08_2.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/08_3.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/08_4.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/09_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/09_2.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/09_3.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/09_4.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/10_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/10_2.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/10_3.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/10_4.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/11_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/11_2.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/11_3.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/11_4.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/12_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/12_2.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/12_3.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/12_4.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/13_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/13_2.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/13_3.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/13_4.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/14_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/kun_pictures/14_2.jpg</t>
   </si>
 </sst>
 </file>
@@ -3058,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FF9DB6-3FEC-4C97-B646-B85A565CF9B7}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3144,7 +3090,7 @@
         <v>20001</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
         <v>152</v>
@@ -3156,10 +3102,10 @@
         <v>76</v>
       </c>
       <c r="F4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G4" t="s">
         <v>153</v>
-      </c>
-      <c r="G4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3167,10 +3113,10 @@
         <v>20002</v>
       </c>
       <c r="B5" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -3179,10 +3125,10 @@
         <v>29</v>
       </c>
       <c r="F5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G5" t="s">
         <v>154</v>
-      </c>
-      <c r="G5" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3190,10 +3136,10 @@
         <v>20003</v>
       </c>
       <c r="B6" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -3202,10 +3148,10 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
+        <v>317</v>
+      </c>
+      <c r="G6" t="s">
         <v>155</v>
-      </c>
-      <c r="G6" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3213,10 +3159,10 @@
         <v>20004</v>
       </c>
       <c r="B7" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -3225,10 +3171,10 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G7" t="s">
         <v>156</v>
-      </c>
-      <c r="G7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3236,10 +3182,10 @@
         <v>20005</v>
       </c>
       <c r="B8" t="s">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -3248,10 +3194,10 @@
         <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>168</v>
+        <v>319</v>
       </c>
       <c r="G8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3259,10 +3205,10 @@
         <v>20006</v>
       </c>
       <c r="B9" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -3271,10 +3217,10 @@
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>169</v>
+        <v>320</v>
       </c>
       <c r="G9" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3282,10 +3228,10 @@
         <v>20007</v>
       </c>
       <c r="B10" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
       <c r="C10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -3294,10 +3240,10 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>170</v>
+        <v>321</v>
       </c>
       <c r="G10" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3305,10 +3251,10 @@
         <v>20008</v>
       </c>
       <c r="B11" t="s">
-        <v>322</v>
+        <v>268</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -3317,10 +3263,10 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>171</v>
+        <v>322</v>
       </c>
       <c r="G11" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3328,10 +3274,10 @@
         <v>20009</v>
       </c>
       <c r="B12" t="s">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -3340,10 +3286,10 @@
         <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>180</v>
+        <v>323</v>
       </c>
       <c r="G12" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3351,10 +3297,10 @@
         <v>20010</v>
       </c>
       <c r="B13" t="s">
-        <v>324</v>
+        <v>270</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -3363,10 +3309,10 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>181</v>
+        <v>324</v>
       </c>
       <c r="G13" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3374,10 +3320,10 @@
         <v>20011</v>
       </c>
       <c r="B14" t="s">
-        <v>325</v>
+        <v>271</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -3386,10 +3332,10 @@
         <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>182</v>
+        <v>325</v>
       </c>
       <c r="G14" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3397,10 +3343,10 @@
         <v>20012</v>
       </c>
       <c r="B15" t="s">
-        <v>326</v>
+        <v>272</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -3409,10 +3355,10 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>183</v>
+        <v>326</v>
       </c>
       <c r="G15" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3420,10 +3366,10 @@
         <v>20013</v>
       </c>
       <c r="B16" t="s">
-        <v>327</v>
+        <v>273</v>
       </c>
       <c r="C16" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -3432,10 +3378,10 @@
         <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>192</v>
+        <v>327</v>
       </c>
       <c r="G16" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -3443,10 +3389,10 @@
         <v>20014</v>
       </c>
       <c r="B17" t="s">
-        <v>328</v>
+        <v>274</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -3455,10 +3401,10 @@
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="G17" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -3466,10 +3412,10 @@
         <v>20015</v>
       </c>
       <c r="B18" t="s">
-        <v>329</v>
+        <v>275</v>
       </c>
       <c r="C18" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -3478,10 +3424,10 @@
         <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>194</v>
+        <v>329</v>
       </c>
       <c r="G18" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -3489,10 +3435,10 @@
         <v>20016</v>
       </c>
       <c r="B19" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="C19" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -3501,10 +3447,10 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>330</v>
       </c>
       <c r="G19" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -3512,10 +3458,10 @@
         <v>20017</v>
       </c>
       <c r="B20" t="s">
-        <v>331</v>
+        <v>277</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -3524,10 +3470,10 @@
         <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>331</v>
       </c>
       <c r="G20" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -3535,10 +3481,10 @@
         <v>20018</v>
       </c>
       <c r="B21" t="s">
-        <v>332</v>
+        <v>278</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -3547,10 +3493,10 @@
         <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>332</v>
       </c>
       <c r="G21" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -3558,10 +3504,10 @@
         <v>20019</v>
       </c>
       <c r="B22" t="s">
-        <v>333</v>
+        <v>279</v>
       </c>
       <c r="C22" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -3570,10 +3516,10 @@
         <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="G22" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -3581,10 +3527,10 @@
         <v>20020</v>
       </c>
       <c r="B23" t="s">
-        <v>334</v>
+        <v>280</v>
       </c>
       <c r="C23" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -3593,10 +3539,10 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>207</v>
+        <v>334</v>
       </c>
       <c r="G23" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -3604,10 +3550,10 @@
         <v>20021</v>
       </c>
       <c r="B24" t="s">
-        <v>335</v>
+        <v>281</v>
       </c>
       <c r="C24" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="D24">
         <v>5</v>
@@ -3616,10 +3562,10 @@
         <v>76</v>
       </c>
       <c r="F24" t="s">
-        <v>216</v>
+        <v>335</v>
       </c>
       <c r="G24" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -3627,10 +3573,10 @@
         <v>20022</v>
       </c>
       <c r="B25" t="s">
-        <v>336</v>
+        <v>282</v>
       </c>
       <c r="C25" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -3639,10 +3585,10 @@
         <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>217</v>
+        <v>336</v>
       </c>
       <c r="G25" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -3650,10 +3596,10 @@
         <v>20023</v>
       </c>
       <c r="B26" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="C26" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -3662,10 +3608,10 @@
         <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>218</v>
+        <v>337</v>
       </c>
       <c r="G26" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -3673,10 +3619,10 @@
         <v>20024</v>
       </c>
       <c r="B27" t="s">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="C27" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -3685,10 +3631,10 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>219</v>
+        <v>338</v>
       </c>
       <c r="G27" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -3696,10 +3642,10 @@
         <v>20025</v>
       </c>
       <c r="B28" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
       <c r="C28" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -3708,10 +3654,10 @@
         <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>228</v>
+        <v>339</v>
       </c>
       <c r="G28" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -3719,10 +3665,10 @@
         <v>20026</v>
       </c>
       <c r="B29" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="C29" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="D29">
         <v>5</v>
@@ -3731,10 +3677,10 @@
         <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>229</v>
+        <v>340</v>
       </c>
       <c r="G29" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -3742,10 +3688,10 @@
         <v>20027</v>
       </c>
       <c r="B30" t="s">
-        <v>341</v>
+        <v>287</v>
       </c>
       <c r="C30" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -3754,10 +3700,10 @@
         <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>230</v>
+        <v>341</v>
       </c>
       <c r="G30" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -3765,10 +3711,10 @@
         <v>20028</v>
       </c>
       <c r="B31" t="s">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="C31" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -3777,10 +3723,10 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>342</v>
       </c>
       <c r="G31" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -3788,10 +3734,10 @@
         <v>20029</v>
       </c>
       <c r="B32" t="s">
-        <v>343</v>
+        <v>289</v>
       </c>
       <c r="C32" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="D32">
         <v>5</v>
@@ -3800,10 +3746,10 @@
         <v>76</v>
       </c>
       <c r="F32" t="s">
-        <v>240</v>
+        <v>343</v>
       </c>
       <c r="G32" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -3811,10 +3757,10 @@
         <v>20030</v>
       </c>
       <c r="B33" t="s">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="C33" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -3823,10 +3769,10 @@
         <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>241</v>
+        <v>344</v>
       </c>
       <c r="G33" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -3834,10 +3780,10 @@
         <v>20031</v>
       </c>
       <c r="B34" t="s">
-        <v>345</v>
+        <v>291</v>
       </c>
       <c r="C34" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="D34">
         <v>5</v>
@@ -3846,10 +3792,10 @@
         <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>242</v>
+        <v>345</v>
       </c>
       <c r="G34" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -3857,10 +3803,10 @@
         <v>20032</v>
       </c>
       <c r="B35" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="C35" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -3869,10 +3815,10 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>243</v>
+        <v>346</v>
       </c>
       <c r="G35" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -3880,10 +3826,10 @@
         <v>20033</v>
       </c>
       <c r="B36" t="s">
-        <v>347</v>
+        <v>293</v>
       </c>
       <c r="C36" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="D36">
         <v>5</v>
@@ -3892,10 +3838,10 @@
         <v>76</v>
       </c>
       <c r="F36" t="s">
-        <v>252</v>
+        <v>347</v>
       </c>
       <c r="G36" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -3903,10 +3849,10 @@
         <v>20034</v>
       </c>
       <c r="B37" t="s">
-        <v>348</v>
+        <v>294</v>
       </c>
       <c r="C37" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -3915,10 +3861,10 @@
         <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>253</v>
+        <v>348</v>
       </c>
       <c r="G37" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -3926,10 +3872,10 @@
         <v>20035</v>
       </c>
       <c r="B38" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="C38" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -3938,10 +3884,10 @@
         <v>26</v>
       </c>
       <c r="F38" t="s">
-        <v>254</v>
+        <v>349</v>
       </c>
       <c r="G38" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -3949,10 +3895,10 @@
         <v>20036</v>
       </c>
       <c r="B39" t="s">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="C39" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="D39">
         <v>5</v>
@@ -3961,10 +3907,10 @@
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>255</v>
+        <v>350</v>
       </c>
       <c r="G39" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -3972,10 +3918,10 @@
         <v>20037</v>
       </c>
       <c r="B40" t="s">
-        <v>351</v>
+        <v>297</v>
       </c>
       <c r="C40" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="D40">
         <v>5</v>
@@ -3984,10 +3930,10 @@
         <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>264</v>
+        <v>351</v>
       </c>
       <c r="G40" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -3995,10 +3941,10 @@
         <v>20038</v>
       </c>
       <c r="B41" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="C41" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -4007,10 +3953,10 @@
         <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>265</v>
+        <v>352</v>
       </c>
       <c r="G41" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -4018,10 +3964,10 @@
         <v>20039</v>
       </c>
       <c r="B42" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="C42" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -4030,10 +3976,10 @@
         <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="G42" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -4041,10 +3987,10 @@
         <v>20040</v>
       </c>
       <c r="B43" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="C43" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="D43">
         <v>5</v>
@@ -4053,10 +3999,10 @@
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>267</v>
+        <v>354</v>
       </c>
       <c r="G43" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -4064,10 +4010,10 @@
         <v>20041</v>
       </c>
       <c r="B44" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="C44" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="D44">
         <v>5</v>
@@ -4076,10 +4022,10 @@
         <v>76</v>
       </c>
       <c r="F44" t="s">
-        <v>276</v>
+        <v>355</v>
       </c>
       <c r="G44" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -4087,10 +4033,10 @@
         <v>20042</v>
       </c>
       <c r="B45" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="C45" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="D45">
         <v>5</v>
@@ -4099,10 +4045,10 @@
         <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>277</v>
+        <v>356</v>
       </c>
       <c r="G45" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -4110,10 +4056,10 @@
         <v>20043</v>
       </c>
       <c r="B46" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="C46" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="D46">
         <v>5</v>
@@ -4122,10 +4068,10 @@
         <v>26</v>
       </c>
       <c r="F46" t="s">
-        <v>278</v>
+        <v>357</v>
       </c>
       <c r="G46" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -4133,10 +4079,10 @@
         <v>20044</v>
       </c>
       <c r="B47" t="s">
-        <v>358</v>
+        <v>304</v>
       </c>
       <c r="C47" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="D47">
         <v>5</v>
@@ -4145,10 +4091,10 @@
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="G47" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -4156,10 +4102,10 @@
         <v>20045</v>
       </c>
       <c r="B48" t="s">
-        <v>359</v>
+        <v>305</v>
       </c>
       <c r="C48" t="s">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="D48">
         <v>5</v>
@@ -4168,10 +4114,10 @@
         <v>76</v>
       </c>
       <c r="F48" t="s">
-        <v>288</v>
+        <v>359</v>
       </c>
       <c r="G48" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -4179,10 +4125,10 @@
         <v>20046</v>
       </c>
       <c r="B49" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="C49" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="D49">
         <v>5</v>
@@ -4191,10 +4137,10 @@
         <v>29</v>
       </c>
       <c r="F49" t="s">
-        <v>289</v>
+        <v>360</v>
       </c>
       <c r="G49" t="s">
-        <v>293</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -4202,10 +4148,10 @@
         <v>20047</v>
       </c>
       <c r="B50" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="C50" t="s">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="D50">
         <v>5</v>
@@ -4214,10 +4160,10 @@
         <v>26</v>
       </c>
       <c r="F50" t="s">
-        <v>290</v>
+        <v>361</v>
       </c>
       <c r="G50" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -4225,10 +4171,10 @@
         <v>20048</v>
       </c>
       <c r="B51" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="C51" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="D51">
         <v>5</v>
@@ -4237,10 +4183,10 @@
         <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>291</v>
+        <v>362</v>
       </c>
       <c r="G51" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -4248,10 +4194,10 @@
         <v>20049</v>
       </c>
       <c r="B52" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="C52" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="D52">
         <v>5</v>
@@ -4260,10 +4206,10 @@
         <v>76</v>
       </c>
       <c r="F52" t="s">
-        <v>300</v>
+        <v>363</v>
       </c>
       <c r="G52" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -4271,10 +4217,10 @@
         <v>20050</v>
       </c>
       <c r="B53" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="C53" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="D53">
         <v>5</v>
@@ -4283,10 +4229,10 @@
         <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>301</v>
+        <v>364</v>
       </c>
       <c r="G53" t="s">
-        <v>305</v>
+        <v>253</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -4294,10 +4240,10 @@
         <v>20051</v>
       </c>
       <c r="B54" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="C54" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="D54">
         <v>5</v>
@@ -4306,10 +4252,10 @@
         <v>26</v>
       </c>
       <c r="F54" t="s">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="G54" t="s">
-        <v>306</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -4317,10 +4263,10 @@
         <v>20052</v>
       </c>
       <c r="B55" t="s">
-        <v>366</v>
+        <v>312</v>
       </c>
       <c r="C55" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="D55">
         <v>5</v>
@@ -4329,10 +4275,10 @@
         <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>303</v>
+        <v>366</v>
       </c>
       <c r="G55" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -4340,10 +4286,10 @@
         <v>20053</v>
       </c>
       <c r="B56" t="s">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="C56" t="s">
-        <v>308</v>
+        <v>256</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -4352,10 +4298,10 @@
         <v>77</v>
       </c>
       <c r="F56" t="s">
-        <v>311</v>
+        <v>367</v>
       </c>
       <c r="G56" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -4363,22 +4309,22 @@
         <v>20054</v>
       </c>
       <c r="B57" t="s">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="C57" t="s">
-        <v>309</v>
+        <v>257</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>310</v>
+        <v>258</v>
       </c>
       <c r="F57" t="s">
-        <v>312</v>
+        <v>368</v>
       </c>
       <c r="G57" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/data_source/data_table.xlsx
+++ b/data_source/data_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GodotProject\ikun\data_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BDC465-0755-4C9D-8E66-BA3141451C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F286BD-A0C0-49B3-9259-64E83DFE25D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="1965" windowWidth="20310" windowHeight="12840" tabRatio="581" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="1965" windowWidth="20310" windowHeight="12840" tabRatio="581" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="367">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,15 +330,6 @@
   </si>
   <si>
     <t>秘</t>
-  </si>
-  <si>
-    <t>res://assets/challenge_textures/first_kun.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/challenge_textures/hello_ghost.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/challenge_textures/first_blood.jpg</t>
   </si>
   <si>
     <t>name_id</t>
@@ -409,10 +400,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/challenge_textures/first_snowman.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>撞击雪人一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -449,10 +436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/challenge_textures/first_glod.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>富甲一方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -509,10 +492,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/challenge_textures/hi_store.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>让商人来找你</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -521,10 +500,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/challenge_textures/hi_slot_machine.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>让老虎机来找你</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -537,10 +512,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/challenge_textures/first_store.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>与商人交易100金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -552,10 +523,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/challenge_textures/500_store.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>与商人交易500金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -568,10 +535,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/challenge_textures/1000_store.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>与商人交易1000金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -588,10 +551,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/challenge_textures/first_slot_machine.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>摇奖金额达到100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -636,10 +595,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/challenge_textures/first_card.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>收集一张卡片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1426,6 +1381,44 @@
   </si>
   <si>
     <t>res://assets/kun_pictures/14_2.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/first_kun.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/hello_ghost.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/first_blood.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/first_snowman.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/first_glod.png</t>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/first_card.png</t>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/first_glod.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/hi_store.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/first_slot_machine.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/first_card.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1984,7 +1977,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2076,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2098,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>21</v>
@@ -2127,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>22</v>
@@ -2200,7 +2193,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -2229,7 +2222,7 @@
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="H5" t="s">
         <v>45</v>
@@ -2258,7 +2251,7 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="H6" t="s">
         <v>46</v>
@@ -2287,7 +2280,7 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="H7" t="s">
         <v>32</v>
@@ -2316,7 +2309,7 @@
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="H8" t="s">
         <v>53</v>
@@ -2345,7 +2338,7 @@
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="H9" t="s">
         <v>60</v>
@@ -2374,7 +2367,7 @@
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -2403,7 +2396,7 @@
         <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="H11" t="s">
         <v>67</v>
@@ -2432,7 +2425,7 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="H12" t="s">
         <v>70</v>
@@ -2446,13 +2439,13 @@
         <v>10010</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2461,10 +2454,10 @@
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>360</v>
       </c>
       <c r="H13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2472,13 +2465,13 @@
         <v>10011</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E14">
         <v>25</v>
@@ -2487,10 +2480,10 @@
         <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>360</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2498,13 +2491,13 @@
         <v>10012</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E15">
         <v>50</v>
@@ -2513,10 +2506,10 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>360</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2524,13 +2517,13 @@
         <v>10013</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2539,10 +2532,10 @@
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>363</v>
       </c>
       <c r="H16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -2550,13 +2543,13 @@
         <v>10014</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E17">
         <v>500</v>
@@ -2565,10 +2558,10 @@
         <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>361</v>
       </c>
       <c r="H17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -2576,13 +2569,13 @@
         <v>10015</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E18">
         <v>1000</v>
@@ -2591,10 +2584,10 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
+        <v>361</v>
+      </c>
+      <c r="H18" t="s">
         <v>97</v>
-      </c>
-      <c r="H18" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -2602,13 +2595,13 @@
         <v>10016</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E19">
         <v>5000</v>
@@ -2617,10 +2610,10 @@
         <v>76</v>
       </c>
       <c r="G19" t="s">
-        <v>97</v>
+        <v>361</v>
       </c>
       <c r="H19" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -2628,19 +2621,19 @@
         <v>10017</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>112</v>
+        <v>364</v>
       </c>
       <c r="H20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -2648,13 +2641,13 @@
         <v>10018</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -2663,10 +2656,10 @@
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>364</v>
       </c>
       <c r="H21" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2674,13 +2667,13 @@
         <v>10019</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -2689,10 +2682,10 @@
         <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>123</v>
+        <v>364</v>
       </c>
       <c r="H22" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -2700,13 +2693,13 @@
         <v>10020</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E23">
         <v>1000</v>
@@ -2715,10 +2708,10 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>127</v>
+        <v>364</v>
       </c>
       <c r="H23" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -2726,19 +2719,19 @@
         <v>10021</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>115</v>
+        <v>365</v>
       </c>
       <c r="H24" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2746,13 +2739,13 @@
         <v>10022</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -2761,10 +2754,10 @@
         <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>132</v>
+        <v>365</v>
       </c>
       <c r="H25" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2772,13 +2765,13 @@
         <v>10023</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E26">
         <v>500</v>
@@ -2787,10 +2780,10 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>132</v>
+        <v>365</v>
       </c>
       <c r="H26" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -2798,13 +2791,13 @@
         <v>10024</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E27">
         <v>1000</v>
@@ -2813,10 +2806,10 @@
         <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>132</v>
+        <v>365</v>
       </c>
       <c r="H27" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -2824,13 +2817,13 @@
         <v>10025</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C28" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2839,10 +2832,10 @@
         <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>144</v>
+        <v>366</v>
       </c>
       <c r="H28" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2850,13 +2843,13 @@
         <v>10026</v>
       </c>
       <c r="B29" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C29" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E29">
         <v>15</v>
@@ -2865,10 +2858,10 @@
         <v>26</v>
       </c>
       <c r="G29" t="s">
-        <v>144</v>
+        <v>362</v>
       </c>
       <c r="H29" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -2876,13 +2869,13 @@
         <v>10027</v>
       </c>
       <c r="B30" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C30" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E30">
         <v>30</v>
@@ -2891,10 +2884,10 @@
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>144</v>
+        <v>362</v>
       </c>
       <c r="H30" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3004,7 +2997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FF9DB6-3FEC-4C97-B646-B85A565CF9B7}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -3021,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>21</v>
@@ -3044,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>22</v>
@@ -3090,10 +3083,10 @@
         <v>20001</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -3102,10 +3095,10 @@
         <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="G4" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3113,10 +3106,10 @@
         <v>20002</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -3125,10 +3118,10 @@
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="G5" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3136,10 +3129,10 @@
         <v>20003</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -3148,10 +3141,10 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="G6" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3159,10 +3152,10 @@
         <v>20004</v>
       </c>
       <c r="B7" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -3171,10 +3164,10 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="G7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3182,10 +3175,10 @@
         <v>20005</v>
       </c>
       <c r="B8" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -3194,10 +3187,10 @@
         <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="G8" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3205,10 +3198,10 @@
         <v>20006</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -3217,10 +3210,10 @@
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="G9" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3228,10 +3221,10 @@
         <v>20007</v>
       </c>
       <c r="B10" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -3240,10 +3233,10 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="G10" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3251,10 +3244,10 @@
         <v>20008</v>
       </c>
       <c r="B11" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -3263,10 +3256,10 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="G11" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3274,10 +3267,10 @@
         <v>20009</v>
       </c>
       <c r="B12" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -3286,10 +3279,10 @@
         <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="G12" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3297,10 +3290,10 @@
         <v>20010</v>
       </c>
       <c r="B13" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -3309,10 +3302,10 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="G13" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3320,10 +3313,10 @@
         <v>20011</v>
       </c>
       <c r="B14" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -3332,10 +3325,10 @@
         <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3343,10 +3336,10 @@
         <v>20012</v>
       </c>
       <c r="B15" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -3355,10 +3348,10 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="G15" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3366,10 +3359,10 @@
         <v>20013</v>
       </c>
       <c r="B16" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C16" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -3378,10 +3371,10 @@
         <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="G16" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -3389,10 +3382,10 @@
         <v>20014</v>
       </c>
       <c r="B17" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -3401,10 +3394,10 @@
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="G17" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -3412,10 +3405,10 @@
         <v>20015</v>
       </c>
       <c r="B18" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -3424,10 +3417,10 @@
         <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="G18" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -3435,10 +3428,10 @@
         <v>20016</v>
       </c>
       <c r="B19" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C19" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -3447,10 +3440,10 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="G19" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -3458,10 +3451,10 @@
         <v>20017</v>
       </c>
       <c r="B20" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C20" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -3470,10 +3463,10 @@
         <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="G20" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -3481,10 +3474,10 @@
         <v>20018</v>
       </c>
       <c r="B21" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C21" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -3493,10 +3486,10 @@
         <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="G21" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -3504,10 +3497,10 @@
         <v>20019</v>
       </c>
       <c r="B22" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C22" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -3516,10 +3509,10 @@
         <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="G22" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -3527,10 +3520,10 @@
         <v>20020</v>
       </c>
       <c r="B23" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C23" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -3539,10 +3532,10 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="G23" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -3550,10 +3543,10 @@
         <v>20021</v>
       </c>
       <c r="B24" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C24" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D24">
         <v>5</v>
@@ -3562,10 +3555,10 @@
         <v>76</v>
       </c>
       <c r="F24" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="G24" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -3573,10 +3566,10 @@
         <v>20022</v>
       </c>
       <c r="B25" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C25" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -3585,10 +3578,10 @@
         <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="G25" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -3596,10 +3589,10 @@
         <v>20023</v>
       </c>
       <c r="B26" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C26" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -3608,10 +3601,10 @@
         <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="G26" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -3619,10 +3612,10 @@
         <v>20024</v>
       </c>
       <c r="B27" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C27" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -3631,10 +3624,10 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G27" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -3642,10 +3635,10 @@
         <v>20025</v>
       </c>
       <c r="B28" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C28" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -3654,10 +3647,10 @@
         <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="G28" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -3665,10 +3658,10 @@
         <v>20026</v>
       </c>
       <c r="B29" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C29" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D29">
         <v>5</v>
@@ -3677,10 +3670,10 @@
         <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="G29" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -3688,10 +3681,10 @@
         <v>20027</v>
       </c>
       <c r="B30" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C30" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -3700,10 +3693,10 @@
         <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="G30" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -3711,10 +3704,10 @@
         <v>20028</v>
       </c>
       <c r="B31" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C31" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -3723,10 +3716,10 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="G31" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -3734,10 +3727,10 @@
         <v>20029</v>
       </c>
       <c r="B32" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C32" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D32">
         <v>5</v>
@@ -3746,10 +3739,10 @@
         <v>76</v>
       </c>
       <c r="F32" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="G32" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -3757,10 +3750,10 @@
         <v>20030</v>
       </c>
       <c r="B33" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C33" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -3769,10 +3762,10 @@
         <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="G33" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -3780,10 +3773,10 @@
         <v>20031</v>
       </c>
       <c r="B34" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C34" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="D34">
         <v>5</v>
@@ -3792,10 +3785,10 @@
         <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="G34" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -3803,10 +3796,10 @@
         <v>20032</v>
       </c>
       <c r="B35" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C35" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -3815,10 +3808,10 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="G35" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -3826,10 +3819,10 @@
         <v>20033</v>
       </c>
       <c r="B36" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C36" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D36">
         <v>5</v>
@@ -3838,10 +3831,10 @@
         <v>76</v>
       </c>
       <c r="F36" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="G36" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -3849,10 +3842,10 @@
         <v>20034</v>
       </c>
       <c r="B37" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C37" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -3861,10 +3854,10 @@
         <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="G37" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -3872,10 +3865,10 @@
         <v>20035</v>
       </c>
       <c r="B38" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C38" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -3884,10 +3877,10 @@
         <v>26</v>
       </c>
       <c r="F38" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="G38" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -3895,10 +3888,10 @@
         <v>20036</v>
       </c>
       <c r="B39" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C39" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D39">
         <v>5</v>
@@ -3907,10 +3900,10 @@
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="G39" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -3918,10 +3911,10 @@
         <v>20037</v>
       </c>
       <c r="B40" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C40" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D40">
         <v>5</v>
@@ -3930,10 +3923,10 @@
         <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="G40" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -3941,10 +3934,10 @@
         <v>20038</v>
       </c>
       <c r="B41" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C41" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -3953,10 +3946,10 @@
         <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G41" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -3964,10 +3957,10 @@
         <v>20039</v>
       </c>
       <c r="B42" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C42" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -3976,10 +3969,10 @@
         <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="G42" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -3987,10 +3980,10 @@
         <v>20040</v>
       </c>
       <c r="B43" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C43" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D43">
         <v>5</v>
@@ -3999,10 +3992,10 @@
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="G43" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -4010,10 +4003,10 @@
         <v>20041</v>
       </c>
       <c r="B44" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C44" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D44">
         <v>5</v>
@@ -4022,10 +4015,10 @@
         <v>76</v>
       </c>
       <c r="F44" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="G44" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -4033,10 +4026,10 @@
         <v>20042</v>
       </c>
       <c r="B45" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C45" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D45">
         <v>5</v>
@@ -4045,10 +4038,10 @@
         <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="G45" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -4056,10 +4049,10 @@
         <v>20043</v>
       </c>
       <c r="B46" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C46" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D46">
         <v>5</v>
@@ -4068,10 +4061,10 @@
         <v>26</v>
       </c>
       <c r="F46" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="G46" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -4079,10 +4072,10 @@
         <v>20044</v>
       </c>
       <c r="B47" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C47" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D47">
         <v>5</v>
@@ -4091,10 +4084,10 @@
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G47" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -4102,10 +4095,10 @@
         <v>20045</v>
       </c>
       <c r="B48" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C48" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D48">
         <v>5</v>
@@ -4114,10 +4107,10 @@
         <v>76</v>
       </c>
       <c r="F48" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="G48" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -4125,10 +4118,10 @@
         <v>20046</v>
       </c>
       <c r="B49" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C49" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D49">
         <v>5</v>
@@ -4137,10 +4130,10 @@
         <v>29</v>
       </c>
       <c r="F49" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G49" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -4148,10 +4141,10 @@
         <v>20047</v>
       </c>
       <c r="B50" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C50" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D50">
         <v>5</v>
@@ -4160,10 +4153,10 @@
         <v>26</v>
       </c>
       <c r="F50" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="G50" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -4171,10 +4164,10 @@
         <v>20048</v>
       </c>
       <c r="B51" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C51" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D51">
         <v>5</v>
@@ -4183,10 +4176,10 @@
         <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="G51" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -4194,10 +4187,10 @@
         <v>20049</v>
       </c>
       <c r="B52" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C52" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D52">
         <v>5</v>
@@ -4206,10 +4199,10 @@
         <v>76</v>
       </c>
       <c r="F52" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="G52" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -4217,10 +4210,10 @@
         <v>20050</v>
       </c>
       <c r="B53" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C53" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D53">
         <v>5</v>
@@ -4229,10 +4222,10 @@
         <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G53" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -4240,10 +4233,10 @@
         <v>20051</v>
       </c>
       <c r="B54" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C54" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D54">
         <v>5</v>
@@ -4252,10 +4245,10 @@
         <v>26</v>
       </c>
       <c r="F54" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="G54" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -4263,10 +4256,10 @@
         <v>20052</v>
       </c>
       <c r="B55" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C55" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D55">
         <v>5</v>
@@ -4275,10 +4268,10 @@
         <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="G55" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -4286,10 +4279,10 @@
         <v>20053</v>
       </c>
       <c r="B56" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C56" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -4298,10 +4291,10 @@
         <v>77</v>
       </c>
       <c r="F56" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="G56" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -4309,22 +4302,22 @@
         <v>20054</v>
       </c>
       <c r="B57" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C57" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="F57" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="G57" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/data_source/data_table.xlsx
+++ b/data_source/data_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GodotProject\ikun\data_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F286BD-A0C0-49B3-9259-64E83DFE25D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DBB319-7204-4394-A21F-9E3ABF647622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="1965" windowWidth="20310" windowHeight="12840" tabRatio="581" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="1965" windowWidth="20310" windowHeight="12840" tabRatio="581" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="4" r:id="rId1"/>
@@ -1221,168 +1221,6 @@
     <t>14_2</t>
   </si>
   <si>
-    <t>res://assets/kun_pictures/01_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/01_2.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/01_3.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/01_4.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/02_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/02_2.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/02_3.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/02_4.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/03_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/03_2.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/03_3.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/03_4.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/04_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/04_2.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/04_3.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/04_4.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/05_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/05_2.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/05_3.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/05_4.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/06_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/06_2.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/06_3.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/06_4.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/07_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/07_2.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/07_3.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/07_4.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/08_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/08_2.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/08_3.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/08_4.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/09_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/09_2.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/09_3.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/09_4.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/10_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/10_2.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/10_3.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/10_4.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/11_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/11_2.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/11_3.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/11_4.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/12_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/12_2.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/12_3.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/12_4.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/13_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/13_2.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/13_3.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/13_4.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/14_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/kun_pictures/14_2.jpg</t>
-  </si>
-  <si>
     <t>res://assets/challenge_textures/first_kun.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1419,6 +1257,168 @@
   <si>
     <t>res://assets/challenge_textures/first_card.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/01_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/01_2.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/01_3.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/01_4.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/02_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/02_2.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/02_3.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/02_4.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/03_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/03_2.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/03_3.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/03_4.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/04_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/04_2.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/04_3.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/04_4.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/05_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/05_2.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/05_3.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/05_4.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/06_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/06_2.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/06_3.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/06_4.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/07_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/07_2.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/07_3.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/07_4.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/08_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/08_2.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/08_3.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/08_4.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/09_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/09_2.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/09_3.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/09_4.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/10_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/10_2.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/10_3.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/10_4.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/11_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/11_2.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/11_3.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/11_4.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/12_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/12_2.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/12_3.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/12_4.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/13_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/13_2.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/13_3.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/13_4.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/14_1.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/14_2.jpg</t>
   </si>
 </sst>
 </file>
@@ -2069,7 +2069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -2193,7 +2193,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -2222,7 +2222,7 @@
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="H5" t="s">
         <v>45</v>
@@ -2251,7 +2251,7 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="H6" t="s">
         <v>46</v>
@@ -2280,7 +2280,7 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>358</v>
+        <v>304</v>
       </c>
       <c r="H7" t="s">
         <v>32</v>
@@ -2309,7 +2309,7 @@
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>358</v>
+        <v>304</v>
       </c>
       <c r="H8" t="s">
         <v>53</v>
@@ -2338,7 +2338,7 @@
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>358</v>
+        <v>304</v>
       </c>
       <c r="H9" t="s">
         <v>60</v>
@@ -2367,7 +2367,7 @@
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>359</v>
+        <v>305</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -2396,7 +2396,7 @@
         <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>359</v>
+        <v>305</v>
       </c>
       <c r="H11" t="s">
         <v>67</v>
@@ -2425,7 +2425,7 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>359</v>
+        <v>305</v>
       </c>
       <c r="H12" t="s">
         <v>70</v>
@@ -2454,7 +2454,7 @@
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="H13" t="s">
         <v>84</v>
@@ -2480,7 +2480,7 @@
         <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="H14" t="s">
         <v>86</v>
@@ -2506,7 +2506,7 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="H15" t="s">
         <v>89</v>
@@ -2532,7 +2532,7 @@
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="H16" t="s">
         <v>96</v>
@@ -2558,7 +2558,7 @@
         <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="H17" t="s">
         <v>95</v>
@@ -2584,7 +2584,7 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="H18" t="s">
         <v>97</v>
@@ -2610,7 +2610,7 @@
         <v>76</v>
       </c>
       <c r="G19" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="H19" t="s">
         <v>99</v>
@@ -2630,7 +2630,7 @@
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="H20" t="s">
         <v>107</v>
@@ -2656,7 +2656,7 @@
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="H21" t="s">
         <v>112</v>
@@ -2682,7 +2682,7 @@
         <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="H22" t="s">
         <v>115</v>
@@ -2708,7 +2708,7 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="H23" t="s">
         <v>118</v>
@@ -2728,7 +2728,7 @@
         <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="H24" t="s">
         <v>109</v>
@@ -2754,7 +2754,7 @@
         <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="H25" t="s">
         <v>122</v>
@@ -2780,7 +2780,7 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="H26" t="s">
         <v>125</v>
@@ -2806,7 +2806,7 @@
         <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="H27" t="s">
         <v>128</v>
@@ -2832,7 +2832,7 @@
         <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>366</v>
+        <v>312</v>
       </c>
       <c r="H28" t="s">
         <v>133</v>
@@ -2858,7 +2858,7 @@
         <v>26</v>
       </c>
       <c r="G29" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="H29" t="s">
         <v>135</v>
@@ -2884,7 +2884,7 @@
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="H30" t="s">
         <v>139</v>
@@ -2997,8 +2997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FF9DB6-3FEC-4C97-B646-B85A565CF9B7}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3095,7 +3095,7 @@
         <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="G4" t="s">
         <v>141</v>
@@ -3118,7 +3118,7 @@
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="G5" t="s">
         <v>142</v>
@@ -3141,7 +3141,7 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="G6" t="s">
         <v>143</v>
@@ -3164,7 +3164,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="G7" t="s">
         <v>144</v>
@@ -3187,7 +3187,7 @@
         <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G8" t="s">
         <v>152</v>
@@ -3210,7 +3210,7 @@
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="G9" t="s">
         <v>153</v>
@@ -3233,7 +3233,7 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="G10" t="s">
         <v>154</v>
@@ -3256,7 +3256,7 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G11" t="s">
         <v>155</v>
@@ -3279,7 +3279,7 @@
         <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="G12" t="s">
         <v>160</v>
@@ -3302,7 +3302,7 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G13" t="s">
         <v>161</v>
@@ -3325,7 +3325,7 @@
         <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="G14" t="s">
         <v>162</v>
@@ -3348,7 +3348,7 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="G15" t="s">
         <v>163</v>
@@ -3371,7 +3371,7 @@
         <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G16" t="s">
         <v>168</v>
@@ -3394,7 +3394,7 @@
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="G17" t="s">
         <v>169</v>
@@ -3417,7 +3417,7 @@
         <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G18" t="s">
         <v>170</v>
@@ -3440,7 +3440,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="G19" t="s">
         <v>171</v>
@@ -3463,7 +3463,7 @@
         <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="G20" t="s">
         <v>176</v>
@@ -3486,7 +3486,7 @@
         <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="G21" t="s">
         <v>177</v>
@@ -3509,7 +3509,7 @@
         <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="G22" t="s">
         <v>178</v>
@@ -3532,7 +3532,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="G23" t="s">
         <v>179</v>
@@ -3555,7 +3555,7 @@
         <v>76</v>
       </c>
       <c r="F24" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="G24" t="s">
         <v>184</v>
@@ -3578,7 +3578,7 @@
         <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="G25" t="s">
         <v>185</v>
@@ -3601,7 +3601,7 @@
         <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="G26" t="s">
         <v>186</v>
@@ -3624,7 +3624,7 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="G27" t="s">
         <v>187</v>
@@ -3647,7 +3647,7 @@
         <v>76</v>
       </c>
       <c r="F28" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="G28" t="s">
         <v>192</v>
@@ -3670,7 +3670,7 @@
         <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="G29" t="s">
         <v>193</v>
@@ -3693,7 +3693,7 @@
         <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="G30" t="s">
         <v>194</v>
@@ -3716,7 +3716,7 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="G31" t="s">
         <v>195</v>
@@ -3739,7 +3739,7 @@
         <v>76</v>
       </c>
       <c r="F32" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="G32" t="s">
         <v>200</v>
@@ -3762,7 +3762,7 @@
         <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="G33" t="s">
         <v>201</v>
@@ -3785,7 +3785,7 @@
         <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="G34" t="s">
         <v>202</v>
@@ -3808,7 +3808,7 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="G35" t="s">
         <v>203</v>
@@ -3831,7 +3831,7 @@
         <v>76</v>
       </c>
       <c r="F36" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="G36" t="s">
         <v>208</v>
@@ -3854,7 +3854,7 @@
         <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="G37" t="s">
         <v>209</v>
@@ -3877,7 +3877,7 @@
         <v>26</v>
       </c>
       <c r="F38" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="G38" t="s">
         <v>210</v>
@@ -3900,7 +3900,7 @@
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="G39" t="s">
         <v>211</v>
@@ -3923,7 +3923,7 @@
         <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="G40" t="s">
         <v>216</v>
@@ -3946,7 +3946,7 @@
         <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="G41" t="s">
         <v>217</v>
@@ -3969,7 +3969,7 @@
         <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="G42" t="s">
         <v>218</v>
@@ -3992,7 +3992,7 @@
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="G43" t="s">
         <v>219</v>
@@ -4015,7 +4015,7 @@
         <v>76</v>
       </c>
       <c r="F44" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="G44" t="s">
         <v>224</v>
@@ -4038,7 +4038,7 @@
         <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="G45" t="s">
         <v>225</v>
@@ -4061,7 +4061,7 @@
         <v>26</v>
       </c>
       <c r="F46" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="G46" t="s">
         <v>226</v>
@@ -4084,7 +4084,7 @@
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="G47" t="s">
         <v>227</v>
@@ -4107,7 +4107,7 @@
         <v>76</v>
       </c>
       <c r="F48" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="G48" t="s">
         <v>232</v>
@@ -4130,7 +4130,7 @@
         <v>29</v>
       </c>
       <c r="F49" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="G49" t="s">
         <v>233</v>
@@ -4153,7 +4153,7 @@
         <v>26</v>
       </c>
       <c r="F50" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="G50" t="s">
         <v>234</v>
@@ -4176,7 +4176,7 @@
         <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="G51" t="s">
         <v>235</v>
@@ -4199,7 +4199,7 @@
         <v>76</v>
       </c>
       <c r="F52" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="G52" t="s">
         <v>240</v>
@@ -4222,7 +4222,7 @@
         <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="G53" t="s">
         <v>241</v>
@@ -4245,7 +4245,7 @@
         <v>26</v>
       </c>
       <c r="F54" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="G54" t="s">
         <v>242</v>
@@ -4268,7 +4268,7 @@
         <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="G55" t="s">
         <v>243</v>
@@ -4291,7 +4291,7 @@
         <v>77</v>
       </c>
       <c r="F56" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="G56" t="s">
         <v>247</v>
@@ -4314,7 +4314,7 @@
         <v>246</v>
       </c>
       <c r="F57" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="G57" t="s">
         <v>248</v>

--- a/data_source/data_table.xlsx
+++ b/data_source/data_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GodotProject\ikun\data_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DBB319-7204-4394-A21F-9E3ABF647622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358C887D-7387-46D5-B7DA-9DA398FD23C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="1965" windowWidth="20310" windowHeight="12840" tabRatio="581" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="581" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="4" r:id="rId1"/>
@@ -2069,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2852,7 +2852,7 @@
         <v>130</v>
       </c>
       <c r="E29">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>26</v>
@@ -2878,7 +2878,7 @@
         <v>130</v>
       </c>
       <c r="E30">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>29</v>
@@ -2997,7 +2997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FF9DB6-3FEC-4C97-B646-B85A565CF9B7}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/data_source/data_table.xlsx
+++ b/data_source/data_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GodotProject\ikun\data_source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11314\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358C887D-7387-46D5-B7DA-9DA398FD23C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5821E4C-293D-4842-9902-188D856B7797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="581" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44295" yWindow="9480" windowWidth="20355" windowHeight="12870" tabRatio="581" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="311">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +319,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>已报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报警了报警了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没想到啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷听</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>droprate</t>
   </si>
   <si>
@@ -326,10 +342,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>千鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>奇</t>
   </si>
   <si>
-    <t>秘</t>
+    <t>骂人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你怎么骂人啊？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/first_kun.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/hello_ghost.jpg</t>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/first_blood.jpg</t>
   </si>
   <si>
     <t>name_id</t>
@@ -337,6 +371,23 @@
   </si>
   <si>
     <t>更具辨识度的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yibaojing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>touting</t>
+  </si>
+  <si>
+    <t>qianniao</t>
+  </si>
+  <si>
+    <t>maren</t>
+  </si>
+  <si>
+    <t>meixiangdao</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -400,6 +451,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>res://assets/challenge_textures/first_snowman.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>撞击雪人一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,6 +491,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>res://assets/challenge_textures/first_glod.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>富甲一方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -492,6 +551,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>res://assets/challenge_textures/hi_store.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>让商人来找你</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -500,6 +563,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>res://assets/challenge_textures/hi_slot_machine.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>让老虎机来找你</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -512,6 +579,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>res://assets/challenge_textures/first_store.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>与商人交易100金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -523,6 +594,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>res://assets/challenge_textures/500_store.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>与商人交易500金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -535,6 +610,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>res://assets/challenge_textures/1000_store.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>与商人交易1000金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -551,6 +630,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>res://assets/challenge_textures/first_slot_machine.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>摇奖金额达到100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -595,6 +678,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>res://assets/challenge_textures/first_card.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>收集一张卡片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -623,809 +710,593 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黑桃A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ace of spades</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ace of hearts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ace of clubs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ace of diamonds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红桃A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅花A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方块A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑桃2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红桃2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅花2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方块2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Two of spades</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Two of hearts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Two of clubs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Two of diamonds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑桃3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红桃3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅花3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方块3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Three of spades</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Three of hearts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Three of clubs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Three of diamonds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑桃4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红桃4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅花4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方块4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Four of spades</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Four of hearts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Four of clubs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Four of diamonds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑桃5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红桃5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅花5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方块5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Five of spades</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Five of hearts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Five of clubs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Five of diamonds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑桃6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红桃6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅花6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方块6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Six of spades</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Six of hearts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Six of clubs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Six of diamonds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑桃7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红桃7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅花7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方块7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seven of spades</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seven of hearts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seven of clubs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seven of diamonds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑桃8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红桃8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅花8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方块8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eight of spades</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eight of hearts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eight of clubs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eight of diamonds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑桃9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红桃9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅花9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方块9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nine of spades</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nine of hearts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nine of clubs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nine of diamonds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑桃10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红桃10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅花10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方块10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ten of spades</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ten of hearts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ten of clubs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ten of diamonds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑桃J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红桃J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅花J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方块J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jack of spades</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jack of hearts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jack of clubs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jack of diamonds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑桃Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红桃Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅花Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方块Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Queen of spades</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Queen of hearts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Queen of clubs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Queen of diamonds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑桃K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红桃K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅花K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方块K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>King of spades</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>King of hearts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>King of clubs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>King of diamonds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极</t>
-  </si>
-  <si>
-    <t>Big joker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Little joker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_2</t>
-  </si>
-  <si>
-    <t>01_3</t>
-  </si>
-  <si>
-    <t>01_4</t>
-  </si>
-  <si>
-    <t>02_1</t>
-  </si>
-  <si>
-    <t>02_2</t>
-  </si>
-  <si>
-    <t>02_3</t>
-  </si>
-  <si>
-    <t>02_4</t>
-  </si>
-  <si>
-    <t>03_1</t>
-  </si>
-  <si>
-    <t>03_2</t>
-  </si>
-  <si>
-    <t>03_3</t>
-  </si>
-  <si>
-    <t>03_4</t>
-  </si>
-  <si>
-    <t>04_1</t>
-  </si>
-  <si>
-    <t>04_2</t>
-  </si>
-  <si>
-    <t>04_3</t>
-  </si>
-  <si>
-    <t>04_4</t>
-  </si>
-  <si>
-    <t>05_1</t>
-  </si>
-  <si>
-    <t>05_2</t>
-  </si>
-  <si>
-    <t>05_3</t>
-  </si>
-  <si>
-    <t>05_4</t>
-  </si>
-  <si>
-    <t>06_1</t>
-  </si>
-  <si>
-    <t>06_2</t>
-  </si>
-  <si>
-    <t>06_3</t>
-  </si>
-  <si>
-    <t>06_4</t>
-  </si>
-  <si>
-    <t>07_1</t>
-  </si>
-  <si>
-    <t>07_2</t>
-  </si>
-  <si>
-    <t>07_3</t>
-  </si>
-  <si>
-    <t>07_4</t>
-  </si>
-  <si>
-    <t>08_1</t>
-  </si>
-  <si>
-    <t>08_2</t>
-  </si>
-  <si>
-    <t>08_3</t>
-  </si>
-  <si>
-    <t>08_4</t>
-  </si>
-  <si>
-    <t>09_1</t>
-  </si>
-  <si>
-    <t>09_2</t>
-  </si>
-  <si>
-    <t>09_3</t>
-  </si>
-  <si>
-    <t>09_4</t>
-  </si>
-  <si>
-    <t>10_1</t>
-  </si>
-  <si>
-    <t>10_2</t>
-  </si>
-  <si>
-    <t>10_3</t>
-  </si>
-  <si>
-    <t>10_4</t>
-  </si>
-  <si>
-    <t>11_1</t>
-  </si>
-  <si>
-    <t>11_2</t>
-  </si>
-  <si>
-    <t>11_3</t>
-  </si>
-  <si>
-    <t>11_4</t>
-  </si>
-  <si>
-    <t>12_1</t>
-  </si>
-  <si>
-    <t>12_2</t>
-  </si>
-  <si>
-    <t>12_3</t>
-  </si>
-  <si>
-    <t>12_4</t>
-  </si>
-  <si>
-    <t>13_1</t>
-  </si>
-  <si>
-    <t>13_2</t>
-  </si>
-  <si>
-    <t>13_3</t>
-  </si>
-  <si>
-    <t>13_4</t>
-  </si>
-  <si>
-    <t>14_1</t>
-  </si>
-  <si>
-    <t>14_2</t>
-  </si>
-  <si>
-    <t>res://assets/challenge_textures/first_kun.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/challenge_textures/hello_ghost.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/challenge_textures/first_blood.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/challenge_textures/first_snowman.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/challenge_textures/first_glod.png</t>
-  </si>
-  <si>
-    <t>res://assets/challenge_textures/first_card.png</t>
-  </si>
-  <si>
-    <t>res://assets/challenge_textures/first_glod.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/challenge_textures/hi_store.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/challenge_textures/first_slot_machine.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/challenge_textures/first_card.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/card_textures/01_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/01_2.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/01_3.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/01_4.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/02_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/02_2.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/02_3.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/02_4.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/03_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/03_2.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/03_3.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/03_4.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/04_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/04_2.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/04_3.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/04_4.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/05_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/05_2.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/05_3.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/05_4.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/06_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/06_2.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/06_3.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/06_4.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/07_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/07_2.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/07_3.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/07_4.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/08_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/08_2.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/08_3.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/08_4.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/09_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/09_2.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/09_3.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/09_4.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/10_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/10_2.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/10_3.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/10_4.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/11_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/11_2.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/11_3.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/11_4.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/12_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/12_2.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/12_3.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/12_4.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/13_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/13_2.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/13_3.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/13_4.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/14_1.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/card_textures/14_2.jpg</t>
+    <t>千手坤音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执迷不悟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香翅捞饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐惧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有树枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫杯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏珊的扇子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深紫色杯子，白色内壁和手柄，简约而时尚，宛如艺术品。</t>
+  </si>
+  <si>
+    <t>熊猫头表情包配自拍，萌态可掬，困意十足，询问中透露一丝幽默。</t>
+  </si>
+  <si>
+    <t>红烧鸡翅配白饭，香翅捞饭引食欲，幽默表情包增添趣味。</t>
+  </si>
+  <si>
+    <t>油饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"油饼食不食？"老奶奶表情包太萌啦！瞬间回忆起小时候的味道，让人垂涎三尺！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>你小时候也喜欢吃油饼吗？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“蜘蛛侠”现身！这个男人张开双臂，仿佛要拥抱整个世界。衣服上的蜘蛛图案更是增添了几分神秘感。</t>
+  </si>
+  <si>
+    <t>熊猫表情包来啦！这只可爱的熊猫宝宝似乎遇到了什么让它害怕的东西，哭着喊“快拿开！”真是又萌又有趣呢！</t>
+  </si>
+  <si>
+    <t>这位黑发小哥哥用扇子遮脸，只露一只眼，真是又酷又神秘。你知道“速扇”是什么意思吗？快来解密吧！</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/meixiangdao.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/touting.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/qianniao.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/maren.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/qianshoukunyin.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/zhimibuwu.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/xiangchilaofan.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/kongju.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/youshuzhi.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/zibei.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/sushan.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/youbing.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>青春舞者，自信专注，舞动热情！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黑白灰间的魅力，青春的力量在舞蹈中绽放。看他舞出青春的活力和梦想！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“偷听听说有人打篮球缺人？”图中的卡通人物似乎对篮球有着浓厚的兴趣，说不定正在寻找篮球队友呢！快来加入我们吧！</t>
+  </si>
+  <si>
+    <t>震惊！原来身边一直有个“卧底”，那句“没想到啊 原来你TM就是黑粉”让我瞬间醒悟。人心隔肚皮，真的得小心了！</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/yibaojing.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qianshoukunyin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhimibuwu</t>
+  </si>
+  <si>
+    <t>xiangchilaofan</t>
+  </si>
+  <si>
+    <t>kongju</t>
+  </si>
+  <si>
+    <t>youshuzhi</t>
+  </si>
+  <si>
+    <t>zibei</t>
+  </si>
+  <si>
+    <t>sushan</t>
+  </si>
+  <si>
+    <t>食仁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/shiren.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天的午餐与众不同，一堆带有人脸的智能米让我大开眼界。不仅美味，还有生物识别功能，真是科技改变生活！</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/bingkunkun.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡通表情包，以鸡为形象，融入网络流行语“你有树枝吗”，展现幽默与机智。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰鲲鲲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天偶遇冰鲲大人，一身熊猫装扮，手拿“冰鱼昆昆”篮球，炫酷又可爱！真的让我眼前一亮！</t>
+  </si>
+  <si>
+    <t>卤鸡脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/lujijiao.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"小黑子"果然是个高手！站在两只鸡上，尽显平衡力！鸡脚都露出来了，这是在秀技术吗？</t>
+  </si>
+  <si>
+    <t>荔枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/lizhi.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这颗荔枝戴着黑色的帽子，看起来好可爱！就像一个小小的精灵。尝一口，清甜满溢，真是夏天的味道！</t>
+  </si>
+  <si>
+    <t>斗鸡之王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/doujizhiwang.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日笑点爆棚！xxx表情包来袭，从唱歌到瞪眼，每个动作都太逗了！配上这些文字，简直让人捧腹大笑！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收购了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/shougoule.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看我新宠！金毛犬戴上帽子萌态十足，旁边火焰更是炫酷无比！自嘲“我蒸的售狗了”，实则骄傲满满！</t>
+  </si>
+  <si>
+    <t>树枝666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/shuzhi666.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑子树上大显身手，公鸡站枝头，母鸡稳树干，真是666！dy号******，加油哦！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/zhenshen.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男子戴鸡头套，表情滑稽逗趣！网友：这是要上演哪一出？快来围观，笑出腹肌！</t>
+  </si>
+  <si>
+    <t>你干嘛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/niganma.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>这个姿势好舒服啊！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>看他这放松的样子，一定是做了什么美梦吧！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡符咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/jifuzhou.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原来这就是十二生肖之一的鸡啊！形象生动，简洁明了。不愧是中华文化的一部分！</t>
+  </si>
+  <si>
+    <t>铁粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/tiefen.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这黑色粉末里隐藏的笑容，原来是“铁粉”呀！看着就让人心生欢喜，微笑的力量果然无处不在！</t>
+  </si>
+  <si>
+    <t>烤得香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/kaodexiang.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏日的午后，坐在长条凳上，享受油炸鸡排的美味，吸管里透出丝丝清凉，小伞遮挡着烈日，生活如此惬意！</t>
+  </si>
+  <si>
+    <t>bingkunkun</t>
+  </si>
+  <si>
+    <t>lujijiao</t>
+  </si>
+  <si>
+    <t>lizhi</t>
+  </si>
+  <si>
+    <t>shougoule</t>
+  </si>
+  <si>
+    <t>shuzhi666</t>
+  </si>
+  <si>
+    <t>zhenshen</t>
+  </si>
+  <si>
+    <t>niganma</t>
+  </si>
+  <si>
+    <t>jifuzhou</t>
+  </si>
+  <si>
+    <t>tiefen</t>
+  </si>
+  <si>
+    <t>youbing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shiren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doujizhiwang</t>
+  </si>
+  <si>
+    <t>kaodexiang</t>
+  </si>
+  <si>
+    <t>res://assets/card_textures/nitaimei.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你太美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红衣黑帽，霸气十足！背后的画布更是惊艳，是他的半身照！虚鲲妹妹，你是最棒的！</t>
+  </si>
+  <si>
+    <t>鸡哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/jige.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jige</t>
+  </si>
+  <si>
+    <t>nitaimei</t>
+  </si>
+  <si>
+    <t>金毛犬咬住红球，眼神中透露出一丝狡黠，“鸡哥，算了算”，看来它又想出了什么新点子！</t>
+  </si>
+  <si>
+    <t>威胁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/weixie.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对付小黑子，还得是枪好使</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/daoqie.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盗窃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开团许可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/kaituanxuke.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑衣男子手持工具，破坏白色大门，窗户透出诡异光芒。盗窃行为？勇敢还是愚蠢？</t>
+  </si>
+  <si>
+    <t>“开团许可证”来啦！苏珊女神持证开团，***篮球协会权威签发，有效期长达两年半！快来加入我们，一起享受篮球的魅力吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weixie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daoqie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaituanxuke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/kunliuzhihu.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/diokun.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dio鲲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲲流之主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/haimianbaokun.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海绵宝鲲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/vankun.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>van鲲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/jingdiankun.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典鲲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/tuzikun.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔子鲲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/zuozhukun.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佐助鲲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/xiaozhupeikun.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/kedakun.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可达鲲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/pikakun.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮卡鲲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kunliuzhihu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diokun</t>
+  </si>
+  <si>
+    <t>haimianbaokun</t>
+  </si>
+  <si>
+    <t>vankun</t>
+  </si>
+  <si>
+    <t>jingdiankun</t>
+  </si>
+  <si>
+    <t>tuzikun</t>
+  </si>
+  <si>
+    <t>zuozhukun</t>
+  </si>
+  <si>
+    <t>xiaozhupeikun</t>
+  </si>
+  <si>
+    <t>kedakun</t>
+  </si>
+  <si>
+    <t>pikakun</t>
+  </si>
+  <si>
+    <t>无形之美，最为致命！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不做人啦！我要做鲲！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么不问问神奇鲲螺呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Dark Fantasy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典皮肤，没什么好说的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔子皮肤，没什么好说的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鲲配齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鲲配齐身上纹，掌声送给社会人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那撸多！！！</t>
+  </si>
+  <si>
+    <t>肯得鲲里面花钱还买不到，在这里你免费拥有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去吧！皮卡鲲！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1506,6 +1377,14 @@
     <font>
       <sz val="11"/>
       <color theme="8" tint="0.39997558519241921"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1970,14 +1849,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="68.125" customWidth="1"/>
+    <col min="1" max="1" width="68.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1994,12 +1873,12 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2013,7 +1892,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2021,7 +1900,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -2029,32 +1908,32 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -2069,29 +1948,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1"/>
-    <col min="7" max="7" width="44.625" customWidth="1"/>
-    <col min="8" max="8" width="20.25" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" customWidth="1"/>
+    <col min="2" max="2" width="16.53125" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="14.1328125" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" customWidth="1"/>
+    <col min="7" max="7" width="44.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.265625" customWidth="1"/>
+    <col min="9" max="9" width="18.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>21</v>
@@ -2115,12 +1994,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>22</v>
@@ -2144,7 +2023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>41</v>
       </c>
@@ -2173,7 +2052,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>10001</v>
       </c>
@@ -2193,7 +2072,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>303</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -2202,7 +2081,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>10002</v>
       </c>
@@ -2222,7 +2101,7 @@
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>303</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s">
         <v>45</v>
@@ -2231,7 +2110,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>10003</v>
       </c>
@@ -2251,7 +2130,7 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>303</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s">
         <v>46</v>
@@ -2260,7 +2139,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>10004</v>
       </c>
@@ -2280,7 +2159,7 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>304</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s">
         <v>32</v>
@@ -2289,7 +2168,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>10005</v>
       </c>
@@ -2309,7 +2188,7 @@
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>304</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s">
         <v>53</v>
@@ -2318,7 +2197,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>10006</v>
       </c>
@@ -2338,7 +2217,7 @@
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>304</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s">
         <v>60</v>
@@ -2347,7 +2226,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>10007</v>
       </c>
@@ -2367,7 +2246,7 @@
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>305</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -2376,7 +2255,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10008</v>
       </c>
@@ -2396,7 +2275,7 @@
         <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>305</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s">
         <v>67</v>
@@ -2405,7 +2284,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10009</v>
       </c>
@@ -2425,7 +2304,7 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>305</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
         <v>70</v>
@@ -2434,18 +2313,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10010</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2454,24 +2333,24 @@
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>306</v>
+        <v>98</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>10011</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E14">
         <v>25</v>
@@ -2480,24 +2359,24 @@
         <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>306</v>
+        <v>98</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>10012</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E15">
         <v>50</v>
@@ -2506,24 +2385,24 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>306</v>
+        <v>98</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>10013</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2532,24 +2411,24 @@
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>309</v>
+        <v>108</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>10014</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E17">
         <v>500</v>
@@ -2558,24 +2437,24 @@
         <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>307</v>
+        <v>108</v>
       </c>
       <c r="H17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>10015</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E18">
         <v>1000</v>
@@ -2584,70 +2463,70 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>307</v>
+        <v>108</v>
       </c>
       <c r="H18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>10016</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E19">
         <v>5000</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s">
-        <v>307</v>
+        <v>108</v>
       </c>
       <c r="H19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>10017</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>310</v>
+        <v>123</v>
       </c>
       <c r="H20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>10018</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -2656,24 +2535,24 @@
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>310</v>
+        <v>130</v>
       </c>
       <c r="H21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>10019</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -2682,24 +2561,24 @@
         <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>310</v>
+        <v>134</v>
       </c>
       <c r="H22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>10020</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="E23">
         <v>1000</v>
@@ -2708,44 +2587,44 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>310</v>
+        <v>138</v>
       </c>
       <c r="H23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>10021</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>311</v>
+        <v>126</v>
       </c>
       <c r="H24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>10022</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -2754,24 +2633,24 @@
         <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>311</v>
+        <v>143</v>
       </c>
       <c r="H25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>10023</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E26">
         <v>500</v>
@@ -2780,24 +2659,24 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>311</v>
+        <v>143</v>
       </c>
       <c r="H26" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>10024</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E27">
         <v>1000</v>
@@ -2806,24 +2685,24 @@
         <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>311</v>
+        <v>143</v>
       </c>
       <c r="H27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>10025</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2832,62 +2711,62 @@
         <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>312</v>
+        <v>155</v>
       </c>
       <c r="H28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>10026</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C29" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="E29">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G29" t="s">
-        <v>308</v>
+        <v>155</v>
       </c>
       <c r="H29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>10027</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="E30">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>308</v>
+        <v>155</v>
       </c>
       <c r="H30" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2995,32 +2874,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FF9DB6-3FEC-4C97-B646-B85A565CF9B7}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="36.375" customWidth="1"/>
-    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.06640625" customWidth="1"/>
+    <col min="4" max="4" width="9.73046875" customWidth="1"/>
+    <col min="6" max="6" width="40.3984375" customWidth="1"/>
+    <col min="7" max="7" width="110.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>2</v>
@@ -3032,18 +2912,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>5</v>
@@ -3055,7 +2935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
         <v>41</v>
       </c>
@@ -3078,84 +2958,84 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>20001</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>313</v>
+        <v>193</v>
       </c>
       <c r="G4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>20002</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>314</v>
+        <v>178</v>
       </c>
       <c r="G5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>20003</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>315</v>
+        <v>179</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>20004</v>
       </c>
       <c r="B7" t="s">
-        <v>252</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -3164,90 +3044,90 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>316</v>
+        <v>180</v>
       </c>
       <c r="G7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>20005</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>317</v>
+        <v>181</v>
       </c>
       <c r="G8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>20006</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>318</v>
+        <v>182</v>
       </c>
       <c r="G9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>20007</v>
       </c>
       <c r="B10" t="s">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="D10">
         <v>5</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>319</v>
+        <v>183</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>20008</v>
       </c>
       <c r="B11" t="s">
-        <v>256</v>
+        <v>196</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -3256,90 +3136,90 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>320</v>
+        <v>184</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>20009</v>
       </c>
       <c r="B12" t="s">
-        <v>257</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D12">
         <v>5</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>321</v>
+        <v>185</v>
       </c>
       <c r="G12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>20010</v>
       </c>
       <c r="B13" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>322</v>
+        <v>186</v>
       </c>
       <c r="G13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>20011</v>
       </c>
       <c r="B14" t="s">
-        <v>259</v>
+        <v>199</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>323</v>
+        <v>187</v>
       </c>
       <c r="G14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>20012</v>
       </c>
       <c r="B15" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -3348,90 +3228,90 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>324</v>
+        <v>188</v>
       </c>
       <c r="G15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>20013</v>
       </c>
       <c r="B16" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>325</v>
+        <v>189</v>
       </c>
       <c r="G16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>20014</v>
       </c>
       <c r="B17" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="D17">
         <v>5</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>326</v>
+        <v>202</v>
       </c>
       <c r="G17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>20015</v>
       </c>
       <c r="B18" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="C18" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D18">
         <v>5</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>327</v>
+        <v>204</v>
       </c>
       <c r="G18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>20016</v>
       </c>
       <c r="B19" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="C19" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -3440,90 +3320,90 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>328</v>
+        <v>209</v>
       </c>
       <c r="G19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>20017</v>
       </c>
       <c r="B20" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="D20">
         <v>5</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>329</v>
+        <v>212</v>
       </c>
       <c r="G20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20018</v>
       </c>
       <c r="B21" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="D21">
         <v>5</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>330</v>
+        <v>215</v>
       </c>
       <c r="G21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20019</v>
       </c>
       <c r="B22" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="C22" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="D22">
         <v>5</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>331</v>
+        <v>218</v>
       </c>
       <c r="G22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>20020</v>
       </c>
       <c r="B23" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -3532,90 +3412,90 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>332</v>
+        <v>221</v>
       </c>
       <c r="G23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>20021</v>
       </c>
       <c r="B24" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="C24" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="D24">
         <v>5</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>333</v>
+        <v>224</v>
       </c>
       <c r="G24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>20022</v>
       </c>
       <c r="B25" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="C25" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="D25">
         <v>5</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>334</v>
+        <v>227</v>
       </c>
       <c r="G25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>20023</v>
       </c>
       <c r="B26" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="C26" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="D26">
         <v>5</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>335</v>
+        <v>230</v>
       </c>
       <c r="G26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>20024</v>
       </c>
       <c r="B27" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="C27" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -3624,90 +3504,90 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>336</v>
+        <v>233</v>
       </c>
       <c r="G27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>20025</v>
       </c>
       <c r="B28" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="C28" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="D28">
         <v>5</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>337</v>
+        <v>236</v>
       </c>
       <c r="G28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>20026</v>
       </c>
       <c r="B29" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C29" t="s">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="D29">
         <v>5</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>338</v>
+        <v>251</v>
       </c>
       <c r="G29" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>20027</v>
       </c>
       <c r="B30" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="C30" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>339</v>
+        <v>255</v>
       </c>
       <c r="G30" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>20028</v>
       </c>
       <c r="B31" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C31" t="s">
-        <v>191</v>
+        <v>259</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -3716,90 +3596,90 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="G31" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>20029</v>
       </c>
       <c r="B32" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C32" t="s">
-        <v>196</v>
+        <v>263</v>
       </c>
       <c r="D32">
         <v>5</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>341</v>
+        <v>262</v>
       </c>
       <c r="G32" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>20030</v>
       </c>
       <c r="B33" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C33" t="s">
-        <v>197</v>
+        <v>264</v>
       </c>
       <c r="D33">
         <v>5</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>342</v>
+        <v>265</v>
       </c>
       <c r="G33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>20031</v>
       </c>
       <c r="B34" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="C34" t="s">
-        <v>198</v>
+        <v>274</v>
       </c>
       <c r="D34">
         <v>5</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>343</v>
+        <v>271</v>
       </c>
       <c r="G34" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>20032</v>
       </c>
       <c r="B35" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="C35" t="s">
-        <v>199</v>
+        <v>273</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -3808,90 +3688,90 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>344</v>
+        <v>272</v>
       </c>
       <c r="G35" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>20033</v>
       </c>
       <c r="B36" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="C36" t="s">
-        <v>204</v>
+        <v>276</v>
       </c>
       <c r="D36">
         <v>5</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>345</v>
+        <v>275</v>
       </c>
       <c r="G36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>20034</v>
       </c>
       <c r="B37" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="C37" t="s">
-        <v>205</v>
+        <v>278</v>
       </c>
       <c r="D37">
         <v>5</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>346</v>
+        <v>277</v>
       </c>
       <c r="G37" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>20035</v>
       </c>
       <c r="B38" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="C38" t="s">
-        <v>206</v>
+        <v>280</v>
       </c>
       <c r="D38">
         <v>5</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>347</v>
+        <v>279</v>
       </c>
       <c r="G38" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>20036</v>
       </c>
       <c r="B39" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C39" t="s">
-        <v>207</v>
+        <v>282</v>
       </c>
       <c r="D39">
         <v>5</v>
@@ -3900,424 +3780,102 @@
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
       <c r="G39" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>20037</v>
       </c>
       <c r="B40" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C40" t="s">
-        <v>212</v>
+        <v>284</v>
       </c>
       <c r="D40">
         <v>5</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>349</v>
+        <v>283</v>
       </c>
       <c r="G40" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>20038</v>
       </c>
       <c r="B41" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="C41" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="D41">
         <v>5</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>350</v>
+        <v>285</v>
       </c>
       <c r="G41" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>20039</v>
       </c>
       <c r="B42" t="s">
+        <v>298</v>
+      </c>
+      <c r="C42" t="s">
         <v>287</v>
       </c>
-      <c r="C42" t="s">
-        <v>214</v>
-      </c>
       <c r="D42">
         <v>5</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>351</v>
+        <v>286</v>
       </c>
       <c r="G42" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>20040</v>
       </c>
       <c r="B43" t="s">
+        <v>299</v>
+      </c>
+      <c r="C43" t="s">
+        <v>289</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
         <v>288</v>
       </c>
-      <c r="C43" t="s">
-        <v>215</v>
-      </c>
-      <c r="D43">
-        <v>5</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" t="s">
-        <v>352</v>
-      </c>
       <c r="G43" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>20041</v>
-      </c>
-      <c r="B44" t="s">
-        <v>289</v>
-      </c>
-      <c r="C44" t="s">
-        <v>220</v>
-      </c>
-      <c r="D44">
-        <v>5</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F44" t="s">
-        <v>353</v>
-      </c>
-      <c r="G44" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>20042</v>
-      </c>
-      <c r="B45" t="s">
-        <v>290</v>
-      </c>
-      <c r="C45" t="s">
-        <v>221</v>
-      </c>
-      <c r="D45">
-        <v>5</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" t="s">
-        <v>354</v>
-      </c>
-      <c r="G45" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>20043</v>
-      </c>
-      <c r="B46" t="s">
-        <v>291</v>
-      </c>
-      <c r="C46" t="s">
-        <v>222</v>
-      </c>
-      <c r="D46">
-        <v>5</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" t="s">
-        <v>355</v>
-      </c>
-      <c r="G46" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>20044</v>
-      </c>
-      <c r="B47" t="s">
-        <v>292</v>
-      </c>
-      <c r="C47" t="s">
-        <v>223</v>
-      </c>
-      <c r="D47">
-        <v>5</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" t="s">
-        <v>356</v>
-      </c>
-      <c r="G47" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>20045</v>
-      </c>
-      <c r="B48" t="s">
-        <v>293</v>
-      </c>
-      <c r="C48" t="s">
-        <v>228</v>
-      </c>
-      <c r="D48">
-        <v>5</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F48" t="s">
-        <v>357</v>
-      </c>
-      <c r="G48" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>20046</v>
-      </c>
-      <c r="B49" t="s">
-        <v>294</v>
-      </c>
-      <c r="C49" t="s">
-        <v>229</v>
-      </c>
-      <c r="D49">
-        <v>5</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F49" t="s">
-        <v>358</v>
-      </c>
-      <c r="G49" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>20047</v>
-      </c>
-      <c r="B50" t="s">
-        <v>295</v>
-      </c>
-      <c r="C50" t="s">
-        <v>230</v>
-      </c>
-      <c r="D50">
-        <v>5</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F50" t="s">
-        <v>359</v>
-      </c>
-      <c r="G50" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>20048</v>
-      </c>
-      <c r="B51" t="s">
-        <v>296</v>
-      </c>
-      <c r="C51" t="s">
-        <v>231</v>
-      </c>
-      <c r="D51">
-        <v>5</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" t="s">
-        <v>360</v>
-      </c>
-      <c r="G51" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>20049</v>
-      </c>
-      <c r="B52" t="s">
-        <v>297</v>
-      </c>
-      <c r="C52" t="s">
-        <v>236</v>
-      </c>
-      <c r="D52">
-        <v>5</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F52" t="s">
-        <v>361</v>
-      </c>
-      <c r="G52" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>20050</v>
-      </c>
-      <c r="B53" t="s">
-        <v>298</v>
-      </c>
-      <c r="C53" t="s">
-        <v>237</v>
-      </c>
-      <c r="D53">
-        <v>5</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F53" t="s">
-        <v>362</v>
-      </c>
-      <c r="G53" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>20051</v>
-      </c>
-      <c r="B54" t="s">
-        <v>299</v>
-      </c>
-      <c r="C54" t="s">
-        <v>238</v>
-      </c>
-      <c r="D54">
-        <v>5</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" t="s">
-        <v>363</v>
-      </c>
-      <c r="G54" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>20052</v>
-      </c>
-      <c r="B55" t="s">
-        <v>300</v>
-      </c>
-      <c r="C55" t="s">
-        <v>239</v>
-      </c>
-      <c r="D55">
-        <v>5</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" t="s">
-        <v>364</v>
-      </c>
-      <c r="G55" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>20053</v>
-      </c>
-      <c r="B56" t="s">
-        <v>301</v>
-      </c>
-      <c r="C56" t="s">
-        <v>244</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F56" t="s">
-        <v>365</v>
-      </c>
-      <c r="G56" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>20054</v>
-      </c>
-      <c r="B57" t="s">
-        <v>302</v>
-      </c>
-      <c r="C57" t="s">
-        <v>245</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="F57" t="s">
-        <v>366</v>
-      </c>
-      <c r="G57" t="s">
-        <v>248</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -4400,7 +3958,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E4:E57</xm:sqref>
+          <xm:sqref>E4:E43</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4416,7 +3974,7 @@
           <x14:formula1>
             <xm:f>枚举!$A$1:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E57</xm:sqref>
+          <xm:sqref>E4:E43</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/data_source/data_table.xlsx
+++ b/data_source/data_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11314\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GodotProjects\godot-ikun\data_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5821E4C-293D-4842-9902-188D856B7797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E161312-A0A4-42A1-90F8-191295293715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44295" yWindow="9480" windowWidth="20355" windowHeight="12870" tabRatio="581" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44295" yWindow="9480" windowWidth="20355" windowHeight="12870" tabRatio="581" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="309">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,15 +355,6 @@
   <si>
     <t>你怎么骂人啊？</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/challenge_textures/first_kun.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/challenge_textures/hello_ghost.jpg</t>
-  </si>
-  <si>
-    <t>res://assets/challenge_textures/first_blood.jpg</t>
   </si>
   <si>
     <t>name_id</t>
@@ -451,10 +442,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/challenge_textures/first_snowman.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>撞击雪人一次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -491,10 +478,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/challenge_textures/first_glod.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>富甲一方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -551,10 +534,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/challenge_textures/hi_store.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>让商人来找你</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -563,10 +542,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/challenge_textures/hi_slot_machine.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>让老虎机来找你</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -579,10 +554,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/challenge_textures/first_store.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>与商人交易100金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -594,10 +565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/challenge_textures/500_store.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>与商人交易500金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -610,10 +577,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/challenge_textures/1000_store.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>与商人交易1000金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -630,10 +593,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/challenge_textures/first_slot_machine.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>摇奖金额达到100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -675,10 +634,6 @@
   </si>
   <si>
     <t>first_card</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res://assets/challenge_textures/first_card.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1290,6 +1245,44 @@
   <si>
     <t>去吧！皮卡鲲！</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/first_kun.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/hello_ghost.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/first_blood.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/first_snowman.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/first_glod.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/first_glod.png</t>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/hi_store.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/first_slot_machine.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/first_card.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/challenge_textures/first_card.png</t>
   </si>
 </sst>
 </file>
@@ -1856,7 +1849,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1948,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1970,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>21</v>
@@ -1999,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>22</v>
@@ -2072,7 +2065,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>299</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -2101,7 +2094,7 @@
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>299</v>
       </c>
       <c r="H5" t="s">
         <v>45</v>
@@ -2130,7 +2123,7 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>299</v>
       </c>
       <c r="H6" t="s">
         <v>46</v>
@@ -2159,7 +2152,7 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="H7" t="s">
         <v>32</v>
@@ -2188,7 +2181,7 @@
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="H8" t="s">
         <v>53</v>
@@ -2217,7 +2210,7 @@
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="H9" t="s">
         <v>60</v>
@@ -2246,7 +2239,7 @@
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>301</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -2275,7 +2268,7 @@
         <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>301</v>
       </c>
       <c r="H11" t="s">
         <v>67</v>
@@ -2304,7 +2297,7 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>301</v>
       </c>
       <c r="H12" t="s">
         <v>70</v>
@@ -2318,13 +2311,13 @@
         <v>10010</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2333,10 +2326,10 @@
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>302</v>
       </c>
       <c r="H13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
@@ -2344,13 +2337,13 @@
         <v>10011</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E14">
         <v>25</v>
@@ -2359,10 +2352,10 @@
         <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>302</v>
       </c>
       <c r="H14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
@@ -2370,13 +2363,13 @@
         <v>10012</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E15">
         <v>50</v>
@@ -2385,10 +2378,10 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>302</v>
       </c>
       <c r="H15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -2396,13 +2389,13 @@
         <v>10013</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2411,10 +2404,10 @@
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>108</v>
+        <v>303</v>
       </c>
       <c r="H16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -2422,13 +2415,13 @@
         <v>10014</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E17">
         <v>500</v>
@@ -2437,10 +2430,10 @@
         <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>108</v>
+        <v>304</v>
       </c>
       <c r="H17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -2448,13 +2441,13 @@
         <v>10015</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E18">
         <v>1000</v>
@@ -2463,10 +2456,10 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
+        <v>304</v>
+      </c>
+      <c r="H18" t="s">
         <v>108</v>
-      </c>
-      <c r="H18" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -2474,13 +2467,13 @@
         <v>10016</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E19">
         <v>5000</v>
@@ -2489,10 +2482,10 @@
         <v>81</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>304</v>
       </c>
       <c r="H19" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2500,19 +2493,19 @@
         <v>10017</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>123</v>
+        <v>305</v>
       </c>
       <c r="H20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -2520,13 +2513,13 @@
         <v>10018</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -2535,10 +2528,10 @@
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>130</v>
+        <v>305</v>
       </c>
       <c r="H21" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -2546,13 +2539,13 @@
         <v>10019</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -2561,10 +2554,10 @@
         <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>305</v>
       </c>
       <c r="H22" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -2572,13 +2565,13 @@
         <v>10020</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E23">
         <v>1000</v>
@@ -2587,10 +2580,10 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>138</v>
+        <v>305</v>
       </c>
       <c r="H23" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
@@ -2598,19 +2591,19 @@
         <v>10021</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>126</v>
+        <v>306</v>
       </c>
       <c r="H24" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
@@ -2618,13 +2611,13 @@
         <v>10022</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -2633,10 +2626,10 @@
         <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>143</v>
+        <v>306</v>
       </c>
       <c r="H25" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
@@ -2644,13 +2637,13 @@
         <v>10023</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E26">
         <v>500</v>
@@ -2659,10 +2652,10 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>143</v>
+        <v>306</v>
       </c>
       <c r="H26" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
@@ -2670,13 +2663,13 @@
         <v>10024</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C27" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E27">
         <v>1000</v>
@@ -2685,10 +2678,10 @@
         <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>143</v>
+        <v>306</v>
       </c>
       <c r="H27" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
@@ -2696,13 +2689,13 @@
         <v>10025</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2711,10 +2704,10 @@
         <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>155</v>
+        <v>307</v>
       </c>
       <c r="H28" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
@@ -2722,13 +2715,13 @@
         <v>10026</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E29">
         <v>20</v>
@@ -2737,10 +2730,10 @@
         <v>26</v>
       </c>
       <c r="G29" t="s">
-        <v>155</v>
+        <v>308</v>
       </c>
       <c r="H29" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
@@ -2748,13 +2741,13 @@
         <v>10027</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C30" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E30">
         <v>40</v>
@@ -2763,10 +2756,10 @@
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>155</v>
+        <v>308</v>
       </c>
       <c r="H30" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2876,7 +2869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FF9DB6-3FEC-4C97-B646-B85A565CF9B7}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+    <sheetView topLeftCell="D22" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
@@ -2894,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>21</v>
@@ -2917,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>22</v>
@@ -2963,7 +2956,7 @@
         <v>20001</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
@@ -2975,7 +2968,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="G4" t="s">
         <v>75</v>
@@ -2986,7 +2979,7 @@
         <v>20002</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
         <v>76</v>
@@ -2998,10 +2991,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="G5" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -3009,7 +3002,7 @@
         <v>20003</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
@@ -3021,10 +3014,10 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" t="s">
         <v>179</v>
-      </c>
-      <c r="G6" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -3032,7 +3025,7 @@
         <v>20004</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>80</v>
@@ -3044,10 +3037,10 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="G7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -3055,7 +3048,7 @@
         <v>20005</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
         <v>82</v>
@@ -3067,7 +3060,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="G8" t="s">
         <v>83</v>
@@ -3078,22 +3071,22 @@
         <v>20006</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" t="s">
         <v>163</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>182</v>
-      </c>
-      <c r="G9" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -3101,10 +3094,10 @@
         <v>20007</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -3113,10 +3106,10 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G10" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -3124,10 +3117,10 @@
         <v>20008</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -3136,10 +3129,10 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="G11" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -3147,10 +3140,10 @@
         <v>20009</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -3159,10 +3152,10 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="G12" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -3170,10 +3163,10 @@
         <v>20010</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -3182,10 +3175,10 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="G13" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -3193,10 +3186,10 @@
         <v>20011</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -3205,10 +3198,10 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="G14" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -3216,10 +3209,10 @@
         <v>20012</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -3228,10 +3221,10 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G15" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -3239,10 +3232,10 @@
         <v>20013</v>
       </c>
       <c r="B16" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -3251,10 +3244,10 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G16" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -3262,10 +3255,10 @@
         <v>20014</v>
       </c>
       <c r="B17" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C17" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -3274,10 +3267,10 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G17" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -3285,10 +3278,10 @@
         <v>20015</v>
       </c>
       <c r="B18" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C18" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -3297,10 +3290,10 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G18" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -3308,10 +3301,10 @@
         <v>20016</v>
       </c>
       <c r="B19" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C19" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -3320,10 +3313,10 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G19" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -3331,10 +3324,10 @@
         <v>20017</v>
       </c>
       <c r="B20" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C20" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -3343,10 +3336,10 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G20" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -3354,10 +3347,10 @@
         <v>20018</v>
       </c>
       <c r="B21" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -3366,10 +3359,10 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G21" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -3377,10 +3370,10 @@
         <v>20019</v>
       </c>
       <c r="B22" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C22" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -3389,10 +3382,10 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="G22" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -3400,10 +3393,10 @@
         <v>20020</v>
       </c>
       <c r="B23" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C23" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -3412,10 +3405,10 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G23" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -3423,10 +3416,10 @@
         <v>20021</v>
       </c>
       <c r="B24" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C24" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D24">
         <v>5</v>
@@ -3435,10 +3428,10 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="G24" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
@@ -3446,10 +3439,10 @@
         <v>20022</v>
       </c>
       <c r="B25" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C25" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -3458,10 +3451,10 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="G25" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
@@ -3469,10 +3462,10 @@
         <v>20023</v>
       </c>
       <c r="B26" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C26" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -3481,10 +3474,10 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="G26" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
@@ -3492,10 +3485,10 @@
         <v>20024</v>
       </c>
       <c r="B27" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C27" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -3504,10 +3497,10 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -3515,10 +3508,10 @@
         <v>20025</v>
       </c>
       <c r="B28" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C28" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -3527,10 +3520,10 @@
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G28" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
@@ -3538,10 +3531,10 @@
         <v>20026</v>
       </c>
       <c r="B29" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C29" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D29">
         <v>5</v>
@@ -3550,10 +3543,10 @@
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="G29" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
@@ -3561,10 +3554,10 @@
         <v>20027</v>
       </c>
       <c r="B30" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C30" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -3573,10 +3566,10 @@
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="G30" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -3584,10 +3577,10 @@
         <v>20028</v>
       </c>
       <c r="B31" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C31" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -3596,10 +3589,10 @@
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G31" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
@@ -3607,10 +3600,10 @@
         <v>20029</v>
       </c>
       <c r="B32" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C32" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D32">
         <v>5</v>
@@ -3619,10 +3612,10 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="G32" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
@@ -3630,10 +3623,10 @@
         <v>20030</v>
       </c>
       <c r="B33" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C33" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -3642,10 +3635,10 @@
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G33" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -3653,10 +3646,10 @@
         <v>20031</v>
       </c>
       <c r="B34" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C34" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D34">
         <v>5</v>
@@ -3665,10 +3658,10 @@
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="G34" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
@@ -3676,10 +3669,10 @@
         <v>20032</v>
       </c>
       <c r="B35" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C35" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -3688,10 +3681,10 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="G35" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
@@ -3699,10 +3692,10 @@
         <v>20033</v>
       </c>
       <c r="B36" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C36" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D36">
         <v>5</v>
@@ -3711,10 +3704,10 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="G36" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -3722,10 +3715,10 @@
         <v>20034</v>
       </c>
       <c r="B37" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C37" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -3734,10 +3727,10 @@
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="G37" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -3745,10 +3738,10 @@
         <v>20035</v>
       </c>
       <c r="B38" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C38" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -3757,10 +3750,10 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="G38" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -3768,10 +3761,10 @@
         <v>20036</v>
       </c>
       <c r="B39" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C39" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D39">
         <v>5</v>
@@ -3780,10 +3773,10 @@
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="G39" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
@@ -3791,22 +3784,22 @@
         <v>20037</v>
       </c>
       <c r="B40" t="s">
+        <v>284</v>
+      </c>
+      <c r="C40" t="s">
+        <v>272</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>271</v>
+      </c>
+      <c r="G40" t="s">
         <v>296</v>
-      </c>
-      <c r="C40" t="s">
-        <v>284</v>
-      </c>
-      <c r="D40">
-        <v>5</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" t="s">
-        <v>283</v>
-      </c>
-      <c r="G40" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
@@ -3814,10 +3807,10 @@
         <v>20038</v>
       </c>
       <c r="B41" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C41" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -3826,10 +3819,10 @@
         <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="G41" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -3837,10 +3830,10 @@
         <v>20039</v>
       </c>
       <c r="B42" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C42" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -3849,10 +3842,10 @@
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="G42" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -3860,10 +3853,10 @@
         <v>20040</v>
       </c>
       <c r="B43" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C43" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D43">
         <v>5</v>
@@ -3872,10 +3865,10 @@
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="G43" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/data_source/data_table.xlsx
+++ b/data_source/data_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GodotProjects\godot-ikun\data_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E161312-A0A4-42A1-90F8-191295293715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6A0EF8-7F87-4819-AEF3-39CF6FA96B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44295" yWindow="9480" windowWidth="20355" windowHeight="12870" tabRatio="581" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43470" yWindow="6120" windowWidth="20355" windowHeight="12870" tabRatio="581" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="4" r:id="rId1"/>
@@ -1097,10 +1097,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://assets/card_textures/kunliuzhihu.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>res://assets/card_textures/diokun.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1125,10 +1121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>van鲲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>res://assets/card_textures/jingdiankun.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1283,6 +1275,14 @@
   </si>
   <si>
     <t>res://assets/challenge_textures/first_card.png</t>
+  </si>
+  <si>
+    <t>地牢领主鲲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://assets/card_textures/kunliuzhizhu.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1941,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2065,7 +2065,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -2094,7 +2094,7 @@
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H5" t="s">
         <v>45</v>
@@ -2123,7 +2123,7 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H6" t="s">
         <v>46</v>
@@ -2152,7 +2152,7 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H7" t="s">
         <v>32</v>
@@ -2181,7 +2181,7 @@
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H8" t="s">
         <v>53</v>
@@ -2210,7 +2210,7 @@
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H9" t="s">
         <v>60</v>
@@ -2239,7 +2239,7 @@
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -2268,7 +2268,7 @@
         <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H11" t="s">
         <v>67</v>
@@ -2297,7 +2297,7 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H12" t="s">
         <v>70</v>
@@ -2326,7 +2326,7 @@
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H13" t="s">
         <v>95</v>
@@ -2352,7 +2352,7 @@
         <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H14" t="s">
         <v>97</v>
@@ -2378,7 +2378,7 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H15" t="s">
         <v>100</v>
@@ -2404,7 +2404,7 @@
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H16" t="s">
         <v>107</v>
@@ -2430,7 +2430,7 @@
         <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H17" t="s">
         <v>106</v>
@@ -2456,7 +2456,7 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H18" t="s">
         <v>108</v>
@@ -2482,7 +2482,7 @@
         <v>81</v>
       </c>
       <c r="G19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H19" t="s">
         <v>110</v>
@@ -2502,7 +2502,7 @@
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H20" t="s">
         <v>118</v>
@@ -2528,7 +2528,7 @@
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H21" t="s">
         <v>123</v>
@@ -2554,7 +2554,7 @@
         <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H22" t="s">
         <v>126</v>
@@ -2580,7 +2580,7 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H23" t="s">
         <v>129</v>
@@ -2600,7 +2600,7 @@
         <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H24" t="s">
         <v>120</v>
@@ -2626,7 +2626,7 @@
         <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H25" t="s">
         <v>133</v>
@@ -2652,7 +2652,7 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H26" t="s">
         <v>136</v>
@@ -2678,7 +2678,7 @@
         <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H27" t="s">
         <v>139</v>
@@ -2704,7 +2704,7 @@
         <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H28" t="s">
         <v>144</v>
@@ -2730,7 +2730,7 @@
         <v>26</v>
       </c>
       <c r="G29" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H29" t="s">
         <v>146</v>
@@ -2756,7 +2756,7 @@
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H30" t="s">
         <v>150</v>
@@ -2869,8 +2869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FF9DB6-3FEC-4C97-B646-B85A565CF9B7}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3646,10 +3646,10 @@
         <v>20031</v>
       </c>
       <c r="B34" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D34">
         <v>5</v>
@@ -3658,10 +3658,10 @@
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="G34" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
@@ -3669,10 +3669,10 @@
         <v>20032</v>
       </c>
       <c r="B35" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D35">
         <v>5</v>
@@ -3681,10 +3681,10 @@
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G35" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
@@ -3692,10 +3692,10 @@
         <v>20033</v>
       </c>
       <c r="B36" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D36">
         <v>5</v>
@@ -3704,10 +3704,10 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -3715,10 +3715,10 @@
         <v>20034</v>
       </c>
       <c r="B37" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C37" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -3727,10 +3727,10 @@
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -3738,10 +3738,10 @@
         <v>20035</v>
       </c>
       <c r="B38" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C38" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -3750,10 +3750,10 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -3761,10 +3761,10 @@
         <v>20036</v>
       </c>
       <c r="B39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C39" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D39">
         <v>5</v>
@@ -3773,10 +3773,10 @@
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
@@ -3784,10 +3784,10 @@
         <v>20037</v>
       </c>
       <c r="B40" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C40" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D40">
         <v>5</v>
@@ -3796,10 +3796,10 @@
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G40" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
@@ -3807,10 +3807,10 @@
         <v>20038</v>
       </c>
       <c r="B41" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C41" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -3819,10 +3819,10 @@
         <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G41" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -3830,10 +3830,10 @@
         <v>20039</v>
       </c>
       <c r="B42" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C42" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -3842,10 +3842,10 @@
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G42" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -3853,10 +3853,10 @@
         <v>20040</v>
       </c>
       <c r="B43" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C43" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D43">
         <v>5</v>
@@ -3865,10 +3865,10 @@
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G43" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/data_source/data_table.xlsx
+++ b/data_source/data_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GodotProjects\godot-ikun\data_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6A0EF8-7F87-4819-AEF3-39CF6FA96B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2C701D-9AE1-43BB-8CD9-2760898A9D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43470" yWindow="6120" windowWidth="20355" windowHeight="12870" tabRatio="581" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44205" yWindow="9450" windowWidth="20355" windowHeight="12870" tabRatio="581" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="4" r:id="rId1"/>
@@ -1141,10 +1141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>佐助鲲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>res://assets/card_textures/xiaozhupeikun.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1228,9 +1224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>那撸多！！！</t>
-  </si>
-  <si>
     <t>肯得鲲里面花钱还买不到，在这里你免费拥有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1282,6 +1275,14 @@
   </si>
   <si>
     <t>res://assets/card_textures/kunliuzhizhu.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇智波鲲！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佐鲲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2065,7 +2066,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -2094,7 +2095,7 @@
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H5" t="s">
         <v>45</v>
@@ -2123,7 +2124,7 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H6" t="s">
         <v>46</v>
@@ -2152,7 +2153,7 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H7" t="s">
         <v>32</v>
@@ -2181,7 +2182,7 @@
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H8" t="s">
         <v>53</v>
@@ -2210,7 +2211,7 @@
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H9" t="s">
         <v>60</v>
@@ -2239,7 +2240,7 @@
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H10" t="s">
         <v>27</v>
@@ -2268,7 +2269,7 @@
         <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H11" t="s">
         <v>67</v>
@@ -2297,7 +2298,7 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H12" t="s">
         <v>70</v>
@@ -2326,7 +2327,7 @@
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H13" t="s">
         <v>95</v>
@@ -2352,7 +2353,7 @@
         <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H14" t="s">
         <v>97</v>
@@ -2378,7 +2379,7 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H15" t="s">
         <v>100</v>
@@ -2404,7 +2405,7 @@
         <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H16" t="s">
         <v>107</v>
@@ -2430,7 +2431,7 @@
         <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H17" t="s">
         <v>106</v>
@@ -2456,7 +2457,7 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H18" t="s">
         <v>108</v>
@@ -2482,7 +2483,7 @@
         <v>81</v>
       </c>
       <c r="G19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H19" t="s">
         <v>110</v>
@@ -2502,7 +2503,7 @@
         <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H20" t="s">
         <v>118</v>
@@ -2528,7 +2529,7 @@
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H21" t="s">
         <v>123</v>
@@ -2554,7 +2555,7 @@
         <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H22" t="s">
         <v>126</v>
@@ -2580,7 +2581,7 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H23" t="s">
         <v>129</v>
@@ -2600,7 +2601,7 @@
         <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H24" t="s">
         <v>120</v>
@@ -2626,7 +2627,7 @@
         <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H25" t="s">
         <v>133</v>
@@ -2652,7 +2653,7 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H26" t="s">
         <v>136</v>
@@ -2678,7 +2679,7 @@
         <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H27" t="s">
         <v>139</v>
@@ -2704,7 +2705,7 @@
         <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H28" t="s">
         <v>144</v>
@@ -2730,7 +2731,7 @@
         <v>26</v>
       </c>
       <c r="G29" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H29" t="s">
         <v>146</v>
@@ -2756,7 +2757,7 @@
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H30" t="s">
         <v>150</v>
@@ -2869,8 +2870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FF9DB6-3FEC-4C97-B646-B85A565CF9B7}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2962,7 +2963,7 @@
         <v>74</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>8</v>
@@ -2985,7 +2986,7 @@
         <v>76</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>8</v>
@@ -3008,7 +3009,7 @@
         <v>77</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>8</v>
@@ -3031,7 +3032,7 @@
         <v>80</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>8</v>
@@ -3054,7 +3055,7 @@
         <v>82</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>8</v>
@@ -3077,7 +3078,7 @@
         <v>151</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>8</v>
@@ -3100,7 +3101,7 @@
         <v>152</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>8</v>
@@ -3123,7 +3124,7 @@
         <v>153</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>8</v>
@@ -3146,7 +3147,7 @@
         <v>154</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>8</v>
@@ -3169,7 +3170,7 @@
         <v>155</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>8</v>
@@ -3192,7 +3193,7 @@
         <v>156</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>8</v>
@@ -3215,7 +3216,7 @@
         <v>157</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>8</v>
@@ -3238,7 +3239,7 @@
         <v>161</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>8</v>
@@ -3261,7 +3262,7 @@
         <v>189</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>8</v>
@@ -3284,7 +3285,7 @@
         <v>194</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>8</v>
@@ -3307,7 +3308,7 @@
         <v>196</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>8</v>
@@ -3330,7 +3331,7 @@
         <v>199</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>8</v>
@@ -3353,7 +3354,7 @@
         <v>202</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>8</v>
@@ -3376,7 +3377,7 @@
         <v>205</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>8</v>
@@ -3399,7 +3400,7 @@
         <v>208</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>8</v>
@@ -3422,7 +3423,7 @@
         <v>211</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>8</v>
@@ -3445,7 +3446,7 @@
         <v>214</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>8</v>
@@ -3468,7 +3469,7 @@
         <v>217</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>8</v>
@@ -3491,7 +3492,7 @@
         <v>220</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>8</v>
@@ -3514,7 +3515,7 @@
         <v>223</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>8</v>
@@ -3537,7 +3538,7 @@
         <v>240</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>8</v>
@@ -3560,7 +3561,7 @@
         <v>242</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>8</v>
@@ -3583,7 +3584,7 @@
         <v>247</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>8</v>
@@ -3606,7 +3607,7 @@
         <v>251</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>8</v>
@@ -3629,7 +3630,7 @@
         <v>252</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>8</v>
@@ -3646,22 +3647,22 @@
         <v>20031</v>
       </c>
       <c r="B34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C34" t="s">
         <v>261</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
@@ -3669,7 +3670,7 @@
         <v>20032</v>
       </c>
       <c r="B35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C35" t="s">
         <v>260</v>
@@ -3684,7 +3685,7 @@
         <v>259</v>
       </c>
       <c r="G35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
@@ -3692,13 +3693,13 @@
         <v>20033</v>
       </c>
       <c r="B36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C36" t="s">
         <v>263</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>8</v>
@@ -3707,7 +3708,7 @@
         <v>262</v>
       </c>
       <c r="G36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -3715,13 +3716,13 @@
         <v>20034</v>
       </c>
       <c r="B37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C37" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>8</v>
@@ -3730,7 +3731,7 @@
         <v>264</v>
       </c>
       <c r="G37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -3738,13 +3739,13 @@
         <v>20035</v>
       </c>
       <c r="B38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C38" t="s">
         <v>266</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>8</v>
@@ -3753,7 +3754,7 @@
         <v>265</v>
       </c>
       <c r="G38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -3761,13 +3762,13 @@
         <v>20036</v>
       </c>
       <c r="B39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C39" t="s">
         <v>268</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>8</v>
@@ -3776,7 +3777,7 @@
         <v>267</v>
       </c>
       <c r="G39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
@@ -3784,13 +3785,13 @@
         <v>20037</v>
       </c>
       <c r="B40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C40" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>8</v>
@@ -3799,7 +3800,7 @@
         <v>269</v>
       </c>
       <c r="G40" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
@@ -3807,22 +3808,22 @@
         <v>20038</v>
       </c>
       <c r="B41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C41" t="s">
+        <v>291</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>270</v>
+      </c>
+      <c r="G41" t="s">
         <v>292</v>
-      </c>
-      <c r="D41">
-        <v>5</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" t="s">
-        <v>271</v>
-      </c>
-      <c r="G41" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -3830,22 +3831,22 @@
         <v>20039</v>
       </c>
       <c r="B42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G42" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -3853,22 +3854,22 @@
         <v>20040</v>
       </c>
       <c r="B43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G43" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
